--- a/Filtered_By_Region/Region X/Region X_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region X/Region X_ELECTRIFICATION.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR197"/>
+  <dimension ref="A1:AS197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +659,11 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -707,7 +713,6 @@
       <c r="K2" t="n">
         <v>299968.2</v>
       </c>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -716,17 +721,6 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
         <v>1</v>
       </c>
@@ -774,8 +768,6 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -835,7 +827,6 @@
       <c r="K3" t="n">
         <v>276066</v>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -844,17 +835,6 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
@@ -891,14 +871,12 @@
       <c r="AK3" t="n">
         <v>0</v>
       </c>
-      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="n">
         <v>1</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -963,7 +941,6 @@
       <c r="K4" t="n">
         <v>286844.51</v>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -972,17 +949,6 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
@@ -1019,14 +985,12 @@
       <c r="AK4" t="n">
         <v>0</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="n">
         <v>1</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1102,7 +1066,7 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>43167</v>
       </c>
       <c r="P5" t="inlineStr">
@@ -1110,19 +1074,11 @@
           <t>April 18.2018</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
           <t>GREEN BUILDER</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
@@ -1159,14 +1115,12 @@
       <c r="AK5" t="n">
         <v>0</v>
       </c>
-      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="n">
         <v>1</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1242,7 +1196,7 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="3" t="n">
         <v>43167</v>
       </c>
       <c r="P6" t="inlineStr">
@@ -1250,19 +1204,11 @@
           <t>April 24.2018</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
           <t>GREEN BUILDER</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
@@ -1299,14 +1245,12 @@
       <c r="AK6" t="n">
         <v>0</v>
       </c>
-      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="n">
         <v>1</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1339,7 +1283,6 @@
           <t>Malaybalay City</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Senior High within Casisang CES</t>
@@ -1369,7 +1312,6 @@
       <c r="K7" t="n">
         <v>692717.13</v>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1378,17 +1320,6 @@
       <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
@@ -1425,14 +1356,12 @@
       <c r="AK7" t="n">
         <v>0</v>
       </c>
-      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="n">
         <v>1</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1506,10 +1435,10 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1522,19 +1451,19 @@
           <t>28-2018</t>
         </is>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="3" t="n">
         <v>43319</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>43342</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X8" t="inlineStr">
@@ -1542,7 +1471,6 @@
           <t>Digos Constrak Corporation</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
@@ -1590,7 +1518,6 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1664,10 +1591,9 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="3" t="n">
         <v>43401</v>
       </c>
-      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
           <t>07-2018</t>
@@ -1678,19 +1604,19 @@
           <t>29-2018</t>
         </is>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>43342</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X9" t="inlineStr">
@@ -1698,7 +1624,6 @@
           <t>Digos Constrak Corporation</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
@@ -1746,7 +1671,6 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1820,10 +1744,9 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="3" t="n">
         <v>43416</v>
       </c>
-      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
           <t>07-2018</t>
@@ -1834,19 +1757,19 @@
           <t>30-2018</t>
         </is>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="3" t="n">
         <v>43321</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>43342</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X10" t="inlineStr">
@@ -1854,7 +1777,6 @@
           <t>Digos Constrak Corporation</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
@@ -1902,7 +1824,6 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1976,10 +1897,9 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="3" t="n">
         <v>43401</v>
       </c>
-      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
           <t>07-2018</t>
@@ -1990,19 +1910,19 @@
           <t>31-2018</t>
         </is>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="3" t="n">
         <v>43322</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>43342</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X11" t="inlineStr">
@@ -2010,7 +1930,6 @@
           <t>Digos Constrak Corporation</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
@@ -2058,7 +1977,6 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2132,10 +2050,9 @@
       <c r="N12" t="n">
         <v>0.95</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>45458</v>
       </c>
-      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
           <t>07-2018</t>
@@ -2146,19 +2063,19 @@
           <t>32-2018</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="3" t="n">
         <v>43323</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>43342</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X12" t="inlineStr">
@@ -2218,8 +2135,6 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -2247,7 +2162,6 @@
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Lantapan Stand-Alone SHS</t>
@@ -2286,10 +2200,9 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
           <t>07-2018</t>
@@ -2300,19 +2213,19 @@
           <t>33-2018</t>
         </is>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="3" t="n">
         <v>43324</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>43342</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X13" t="inlineStr">
@@ -2320,7 +2233,6 @@
           <t>Digos Constrak Corporation</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
@@ -2368,7 +2280,6 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2442,10 +2353,9 @@
       <c r="N14" t="n">
         <v>0.9</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="3" t="n">
         <v>45488</v>
       </c>
-      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
           <t>07-2018</t>
@@ -2456,19 +2366,19 @@
           <t>34-2018</t>
         </is>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="3" t="n">
         <v>43325</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>43342</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X14" t="inlineStr">
@@ -2528,8 +2438,6 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -2598,10 +2506,9 @@
       <c r="N15" t="n">
         <v>0.9</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="3" t="n">
         <v>45458</v>
       </c>
-      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
           <t>08-2018</t>
@@ -2617,16 +2524,16 @@
           <t>19 Sep 18</t>
         </is>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>43342</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X15" t="inlineStr">
@@ -2686,8 +2593,6 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -2756,27 +2661,20 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="3" t="n">
         <v>43312</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>43341</v>
       </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr">
         <is>
           <t>BREMA CONSTRUCTON</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
@@ -2824,7 +2722,6 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2898,27 +2795,24 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>208-011</t>
         </is>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="S17" s="3" t="n">
         <v>43224</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>43236</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>43254</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>43258</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="X17" t="inlineStr">
@@ -2926,7 +2820,6 @@
           <t>BRIMA CONST.</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
@@ -2974,7 +2867,6 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3048,27 +2940,24 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
           <t>208-012</t>
         </is>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="3" t="n">
         <v>43224</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>43236</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>43254</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>43258</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="X18" t="inlineStr">
@@ -3076,7 +2965,6 @@
           <t>BRIMA CONST.</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
@@ -3124,7 +3012,6 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3198,27 +3085,20 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="3" t="n">
         <v>43312</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>43341</v>
       </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr">
         <is>
           <t>BREMA CONSTRUCTON</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
@@ -3266,7 +3146,6 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3340,27 +3219,20 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>43312</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>43320</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>43341</v>
       </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr">
         <is>
           <t>BREMA CONSTRUCTON</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
@@ -3408,7 +3280,6 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3482,27 +3353,24 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
           <t>208-013</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>43224</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>43236</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>43254</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>43258</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="X21" t="inlineStr">
@@ -3510,7 +3378,6 @@
           <t>BRIMA CONST.</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
@@ -3558,7 +3425,6 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3632,27 +3498,24 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
           <t>208-014</t>
         </is>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="3" t="n">
         <v>43224</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>43236</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>43254</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>43258</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="X22" t="inlineStr">
@@ -3660,7 +3523,6 @@
           <t>BRIMA CONST.</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
@@ -3708,7 +3570,6 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3782,27 +3643,24 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
           <t>208-011</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>43224</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>43236</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>43254</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>43258</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -3810,7 +3668,6 @@
           <t>BRIMA CONST.</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
@@ -3858,7 +3715,6 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3932,27 +3788,24 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
           <t>208-011</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>43224</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>43236</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>43254</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>43258</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="X24" t="inlineStr">
@@ -3960,7 +3813,6 @@
           <t>BRIMA CONST.</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
@@ -4008,7 +3860,6 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4071,7 +3922,6 @@
       <c r="K25" t="n">
         <v>1419115.71</v>
       </c>
-      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4080,21 +3930,12 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
@@ -4142,7 +3983,6 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4205,7 +4045,6 @@
       <c r="K26" t="n">
         <v>8681319.02</v>
       </c>
-      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4214,21 +4053,12 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
@@ -4276,7 +4106,6 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4339,7 +4168,6 @@
       <c r="K27" t="n">
         <v>2682276.05</v>
       </c>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4348,21 +4176,12 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
@@ -4410,7 +4229,6 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4473,7 +4291,6 @@
       <c r="K28" t="n">
         <v>3019910.32</v>
       </c>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4482,21 +4299,12 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
@@ -4544,7 +4352,6 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4607,7 +4414,6 @@
       <c r="K29" t="n">
         <v>4812666.4</v>
       </c>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4616,21 +4422,12 @@
       <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
@@ -4678,7 +4475,6 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4741,7 +4537,6 @@
       <c r="K30" t="n">
         <v>6434149.04</v>
       </c>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4750,21 +4545,12 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
@@ -4812,7 +4598,6 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4875,7 +4660,6 @@
       <c r="K31" t="n">
         <v>13653985.18</v>
       </c>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4884,21 +4668,12 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
@@ -4946,7 +4721,6 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5009,7 +4783,6 @@
       <c r="K32" t="n">
         <v>2773140.02</v>
       </c>
-      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5018,21 +4791,12 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
@@ -5080,7 +4844,6 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5143,7 +4906,6 @@
       <c r="K33" t="n">
         <v>5469760.43</v>
       </c>
-      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5152,21 +4914,12 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" s="2" t="n">
+      <c r="S33" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
@@ -5214,7 +4967,6 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5277,7 +5029,6 @@
       <c r="K34" t="n">
         <v>4193168.3</v>
       </c>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5286,21 +5037,12 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="3" t="n">
         <v>43305</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
@@ -5348,7 +5090,6 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5422,29 +5163,27 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="3" t="n">
         <v>43409</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
           <t>2018-04-0087</t>
         </is>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="S35" s="3" t="n">
         <v>43218</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>43235</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>43256</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>43271</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>43279</v>
       </c>
       <c r="X35" t="inlineStr">
@@ -5452,7 +5191,6 @@
           <t>Joash AR Engineering</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
@@ -5500,7 +5238,6 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5574,29 +5311,27 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="3" t="n">
         <v>43409</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
           <t>2018-04-0087</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="3" t="n">
         <v>43218</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>43235</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>43225</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>43271</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>43279</v>
       </c>
       <c r="X36" t="inlineStr">
@@ -5604,7 +5339,6 @@
           <t>JOASH AR ENG'G</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
@@ -5652,7 +5386,6 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5715,7 +5448,6 @@
       <c r="K37" t="n">
         <v>1235494.03</v>
       </c>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5724,25 +5456,18 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="O37" s="3" t="n">
         <v>43409</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>43248</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>43254</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>43308</v>
       </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
@@ -5790,7 +5515,6 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5853,7 +5577,6 @@
       <c r="K38" t="n">
         <v>1335344.6</v>
       </c>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5862,25 +5585,18 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="3" t="n">
         <v>43409</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>43248</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>43254</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>43308</v>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
@@ -5928,7 +5644,6 @@
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6002,25 +5717,22 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="O39" s="3" t="n">
         <v>43447</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" s="2" t="n">
+      <c r="S39" s="3" t="n">
         <v>43259</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>43269</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>43284</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>43292</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="3" t="n">
         <v>43299</v>
       </c>
       <c r="X39" t="inlineStr">
@@ -6028,7 +5740,6 @@
           <t>GREEN BUILDERS</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
@@ -6076,7 +5787,6 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6150,25 +5860,22 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="O40" s="3" t="n">
         <v>43447</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" s="2" t="n">
+      <c r="S40" s="3" t="n">
         <v>43259</v>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="T40" s="3" t="n">
         <v>43269</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="U40" s="3" t="n">
         <v>43284</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="3" t="n">
         <v>43292</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="W40" s="3" t="n">
         <v>43299</v>
       </c>
       <c r="X40" t="inlineStr">
@@ -6176,7 +5883,6 @@
           <t>GREEN BUILDERS</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
@@ -6224,7 +5930,6 @@
       <c r="AN40" t="n">
         <v>0</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6298,23 +6003,19 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" s="2" t="n">
+      <c r="S41" s="3" t="n">
         <v>43157</v>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="T41" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U41" s="2" t="n">
+      <c r="U41" s="3" t="n">
         <v>43256</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="V41" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="W41" s="2" t="n">
+      <c r="W41" s="3" t="n">
         <v>43272</v>
       </c>
       <c r="X41" t="inlineStr">
@@ -6322,7 +6023,6 @@
           <t>MEGABLUE KONSTRAK CORPORATION</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
@@ -6370,7 +6070,6 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6444,10 +6143,9 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" s="2" t="n">
+      <c r="O42" s="3" t="n">
         <v>45444</v>
       </c>
-      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
           <t>02-INFRA-2018</t>
@@ -6458,19 +6156,19 @@
           <t>02-INFRA-2018</t>
         </is>
       </c>
-      <c r="S42" s="2" t="n">
+      <c r="S42" s="3" t="n">
         <v>43157</v>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="T42" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="U42" s="3" t="n">
         <v>43256</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="V42" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="W42" s="2" t="n">
+      <c r="W42" s="3" t="n">
         <v>43272</v>
       </c>
       <c r="X42" t="inlineStr">
@@ -6530,7 +6228,6 @@
       <c r="AN42" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="n">
         <v>12.24</v>
       </c>
@@ -6602,10 +6299,9 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" s="2" t="n">
+      <c r="O43" s="3" t="n">
         <v>45444</v>
       </c>
-      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
           <t>02-INFRA-2018</t>
@@ -6616,19 +6312,19 @@
           <t>02-INFRA-2018</t>
         </is>
       </c>
-      <c r="S43" s="2" t="n">
+      <c r="S43" s="3" t="n">
         <v>43157</v>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="T43" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="U43" s="3" t="n">
         <v>43256</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="V43" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="W43" s="3" t="n">
         <v>43272</v>
       </c>
       <c r="X43" t="inlineStr">
@@ -6688,7 +6384,6 @@
       <c r="AN43" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="n">
         <v>12.24</v>
       </c>
@@ -6760,23 +6455,19 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" s="2" t="n">
+      <c r="S44" s="3" t="n">
         <v>43157</v>
       </c>
-      <c r="T44" s="2" t="n">
+      <c r="T44" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U44" s="2" t="n">
+      <c r="U44" s="3" t="n">
         <v>43256</v>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="V44" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="W44" s="2" t="n">
+      <c r="W44" s="3" t="n">
         <v>43272</v>
       </c>
       <c r="X44" t="inlineStr">
@@ -6784,7 +6475,6 @@
           <t>MEGABLUE KONSTRAK CORPORATION</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
@@ -6832,7 +6522,6 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6906,23 +6595,19 @@
       <c r="N45" t="n">
         <v>1</v>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" s="2" t="n">
+      <c r="S45" s="3" t="n">
         <v>43157</v>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="T45" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U45" s="2" t="n">
+      <c r="U45" s="3" t="n">
         <v>43256</v>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="W45" s="3" t="n">
         <v>43272</v>
       </c>
       <c r="X45" t="inlineStr">
@@ -6930,7 +6615,6 @@
           <t>MEGABLUE KONSTRAK CORPORATION</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
@@ -6978,7 +6662,6 @@
       <c r="AN45" t="n">
         <v>0</v>
       </c>
-      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7052,10 +6735,9 @@
       <c r="N46" t="n">
         <v>1</v>
       </c>
-      <c r="O46" s="2" t="n">
+      <c r="O46" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
           <t>02-INFRA-2018</t>
@@ -7066,19 +6748,19 @@
           <t>02-INFRA-2018</t>
         </is>
       </c>
-      <c r="S46" s="2" t="n">
+      <c r="S46" s="3" t="n">
         <v>43157</v>
       </c>
-      <c r="T46" s="2" t="n">
+      <c r="T46" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U46" s="2" t="n">
+      <c r="U46" s="3" t="n">
         <v>43256</v>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="V46" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="W46" s="3" t="n">
         <v>43272</v>
       </c>
       <c r="X46" t="inlineStr">
@@ -7086,7 +6768,6 @@
           <t>DIGOS CONSTRAK CORPORATION</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
@@ -7134,7 +6815,6 @@
       <c r="AN46" t="n">
         <v>0</v>
       </c>
-      <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7208,10 +6888,9 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47" s="2" t="n">
+      <c r="O47" s="3" t="n">
         <v>45458</v>
       </c>
-      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
           <t>02-INFRA-2018</t>
@@ -7222,19 +6901,19 @@
           <t>02-INFRA-2018</t>
         </is>
       </c>
-      <c r="S47" s="2" t="n">
+      <c r="S47" s="3" t="n">
         <v>43157</v>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="T47" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U47" s="2" t="n">
+      <c r="U47" s="3" t="n">
         <v>43256</v>
       </c>
-      <c r="V47" s="2" t="n">
+      <c r="V47" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="W47" s="2" t="n">
+      <c r="W47" s="3" t="n">
         <v>43272</v>
       </c>
       <c r="X47" t="inlineStr">
@@ -7294,7 +6973,6 @@
       <c r="AN47" t="n">
         <v>0</v>
       </c>
-      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="n">
         <v>4.25</v>
       </c>
@@ -7366,10 +7044,9 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48" s="2" t="n">
+      <c r="O48" s="3" t="n">
         <v>45458</v>
       </c>
-      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
           <t>02-INFRA-2018</t>
@@ -7380,19 +7057,19 @@
           <t>02-INFRA-2018</t>
         </is>
       </c>
-      <c r="S48" s="2" t="n">
+      <c r="S48" s="3" t="n">
         <v>43157</v>
       </c>
-      <c r="T48" s="2" t="n">
+      <c r="T48" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U48" s="2" t="n">
+      <c r="U48" s="3" t="n">
         <v>43256</v>
       </c>
-      <c r="V48" s="2" t="n">
+      <c r="V48" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="W48" s="2" t="n">
+      <c r="W48" s="3" t="n">
         <v>43272</v>
       </c>
       <c r="X48" t="inlineStr">
@@ -7452,7 +7129,6 @@
       <c r="AN48" t="n">
         <v>0</v>
       </c>
-      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7526,27 +7202,24 @@
       <c r="N49" t="n">
         <v>1</v>
       </c>
-      <c r="O49" s="2" t="n">
+      <c r="O49" s="3" t="n">
         <v>43439</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
           <t>013-2018</t>
         </is>
       </c>
-      <c r="S49" s="2" t="n">
+      <c r="S49" s="3" t="n">
         <v>43217</v>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" s="2" t="n">
+      <c r="U49" s="3" t="n">
         <v>43230</v>
       </c>
-      <c r="V49" s="2" t="n">
+      <c r="V49" s="3" t="n">
         <v>43259</v>
       </c>
-      <c r="W49" s="2" t="n">
+      <c r="W49" s="3" t="n">
         <v>43312</v>
       </c>
       <c r="X49" t="inlineStr">
@@ -7554,7 +7227,6 @@
           <t>JEFY CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
@@ -7602,7 +7274,6 @@
       <c r="AN49" t="n">
         <v>0</v>
       </c>
-      <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7676,27 +7347,24 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50" s="2" t="n">
+      <c r="O50" s="3" t="n">
         <v>43439</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
           <t>012-2018</t>
         </is>
       </c>
-      <c r="S50" s="2" t="n">
+      <c r="S50" s="3" t="n">
         <v>43217</v>
       </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" s="2" t="n">
+      <c r="U50" s="3" t="n">
         <v>43230</v>
       </c>
-      <c r="V50" s="2" t="n">
+      <c r="V50" s="3" t="n">
         <v>43259</v>
       </c>
-      <c r="W50" s="2" t="n">
+      <c r="W50" s="3" t="n">
         <v>43312</v>
       </c>
       <c r="X50" t="inlineStr">
@@ -7704,7 +7372,6 @@
           <t>JEFY CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
@@ -7752,7 +7419,6 @@
       <c r="AN50" t="n">
         <v>0</v>
       </c>
-      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7826,27 +7492,24 @@
       <c r="N51" t="n">
         <v>1</v>
       </c>
-      <c r="O51" s="2" t="n">
+      <c r="O51" s="3" t="n">
         <v>43439</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
           <t>016-2018</t>
         </is>
       </c>
-      <c r="S51" s="2" t="n">
+      <c r="S51" s="3" t="n">
         <v>43217</v>
       </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" s="2" t="n">
+      <c r="U51" s="3" t="n">
         <v>43230</v>
       </c>
-      <c r="V51" s="2" t="n">
+      <c r="V51" s="3" t="n">
         <v>43259</v>
       </c>
-      <c r="W51" s="2" t="n">
+      <c r="W51" s="3" t="n">
         <v>43315</v>
       </c>
       <c r="X51" t="inlineStr">
@@ -7854,7 +7517,6 @@
           <t>MAQUESERQ CONSTRUCTION &amp; GEN. MDSE.</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
@@ -7902,7 +7564,6 @@
       <c r="AN51" t="n">
         <v>0</v>
       </c>
-      <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7976,21 +7637,16 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" s="2" t="n">
+      <c r="S52" s="3" t="n">
         <v>43304</v>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="T52" s="3" t="n">
         <v>43312</v>
       </c>
-      <c r="U52" s="2" t="n">
+      <c r="U52" s="3" t="n">
         <v>43326</v>
       </c>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" s="2" t="n">
+      <c r="W52" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="X52" t="inlineStr">
@@ -7998,7 +7654,6 @@
           <t>Meter King</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
@@ -8046,7 +7701,6 @@
       <c r="AN52" t="n">
         <v>0</v>
       </c>
-      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8120,21 +7774,16 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" s="2" t="n">
+      <c r="S53" s="3" t="n">
         <v>43276</v>
       </c>
-      <c r="T53" s="2" t="n">
+      <c r="T53" s="3" t="n">
         <v>43284</v>
       </c>
-      <c r="U53" s="2" t="n">
+      <c r="U53" s="3" t="n">
         <v>43298</v>
       </c>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" s="2" t="n">
+      <c r="W53" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X53" t="inlineStr">
@@ -8142,7 +7791,6 @@
           <t>Meter King</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
@@ -8190,7 +7838,6 @@
       <c r="AN53" t="n">
         <v>0</v>
       </c>
-      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8264,21 +7911,16 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" s="2" t="n">
+      <c r="S54" s="3" t="n">
         <v>43304</v>
       </c>
-      <c r="T54" s="2" t="n">
+      <c r="T54" s="3" t="n">
         <v>43312</v>
       </c>
-      <c r="U54" s="2" t="n">
+      <c r="U54" s="3" t="n">
         <v>43326</v>
       </c>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" s="2" t="n">
+      <c r="W54" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="X54" t="inlineStr">
@@ -8286,7 +7928,6 @@
           <t>Meter King</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
@@ -8334,7 +7975,6 @@
       <c r="AN54" t="n">
         <v>0</v>
       </c>
-      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8408,21 +8048,16 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" s="2" t="n">
+      <c r="S55" s="3" t="n">
         <v>43276</v>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="T55" s="3" t="n">
         <v>43284</v>
       </c>
-      <c r="U55" s="2" t="n">
+      <c r="U55" s="3" t="n">
         <v>43298</v>
       </c>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" s="2" t="n">
+      <c r="W55" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="X55" t="inlineStr">
@@ -8430,7 +8065,6 @@
           <t>Meter King</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
@@ -8478,7 +8112,6 @@
       <c r="AN55" t="n">
         <v>0</v>
       </c>
-      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8552,21 +8185,16 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" s="2" t="n">
+      <c r="S56" s="3" t="n">
         <v>43304</v>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="T56" s="3" t="n">
         <v>43312</v>
       </c>
-      <c r="U56" s="2" t="n">
+      <c r="U56" s="3" t="n">
         <v>43326</v>
       </c>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" s="2" t="n">
+      <c r="W56" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="X56" t="inlineStr">
@@ -8574,7 +8202,6 @@
           <t>Meter King</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
@@ -8622,7 +8249,6 @@
       <c r="AN56" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8696,21 +8322,16 @@
       <c r="N57" t="n">
         <v>1</v>
       </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" s="2" t="n">
+      <c r="S57" s="3" t="n">
         <v>43304</v>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="T57" s="3" t="n">
         <v>43312</v>
       </c>
-      <c r="U57" s="2" t="n">
+      <c r="U57" s="3" t="n">
         <v>43326</v>
       </c>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" s="2" t="n">
+      <c r="W57" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="X57" t="inlineStr">
@@ -8718,7 +8339,6 @@
           <t>Meter King</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
@@ -8766,7 +8386,6 @@
       <c r="AN57" t="n">
         <v>0</v>
       </c>
-      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8840,21 +8459,16 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" s="2" t="n">
+      <c r="S58" s="3" t="n">
         <v>43304</v>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="T58" s="3" t="n">
         <v>43312</v>
       </c>
-      <c r="U58" s="2" t="n">
+      <c r="U58" s="3" t="n">
         <v>43326</v>
       </c>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" s="2" t="n">
+      <c r="W58" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="X58" t="inlineStr">
@@ -8862,7 +8476,6 @@
           <t>Meter King</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
@@ -8910,7 +8523,6 @@
       <c r="AN58" t="n">
         <v>0</v>
       </c>
-      <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8984,21 +8596,16 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" s="2" t="n">
+      <c r="S59" s="3" t="n">
         <v>43304</v>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="T59" s="3" t="n">
         <v>43312</v>
       </c>
-      <c r="U59" s="2" t="n">
+      <c r="U59" s="3" t="n">
         <v>43326</v>
       </c>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" s="2" t="n">
+      <c r="W59" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="X59" t="inlineStr">
@@ -9006,7 +8613,6 @@
           <t>Meter King</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
@@ -9054,7 +8660,6 @@
       <c r="AN59" t="n">
         <v>0</v>
       </c>
-      <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9128,21 +8733,16 @@
       <c r="N60" t="n">
         <v>1</v>
       </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" s="2" t="n">
+      <c r="S60" s="3" t="n">
         <v>43276</v>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="T60" s="3" t="n">
         <v>43284</v>
       </c>
-      <c r="U60" s="2" t="n">
+      <c r="U60" s="3" t="n">
         <v>43298</v>
       </c>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" s="2" t="n">
+      <c r="W60" s="3" t="n">
         <v>43349</v>
       </c>
       <c r="X60" t="inlineStr">
@@ -9150,7 +8750,6 @@
           <t>Meter King</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
@@ -9198,7 +8797,6 @@
       <c r="AN60" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9272,25 +8870,22 @@
       <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="O61" s="2" t="n">
+      <c r="O61" s="3" t="n">
         <v>43391</v>
       </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" s="2" t="n">
+      <c r="S61" s="3" t="n">
         <v>43159</v>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="T61" s="3" t="n">
         <v>43167</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>43179</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>43202</v>
       </c>
-      <c r="W61" s="2" t="n">
+      <c r="W61" s="3" t="n">
         <v>43241</v>
       </c>
       <c r="X61" t="inlineStr">
@@ -9298,7 +8893,6 @@
           <t>J.C DELA VEGA CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
@@ -9346,7 +8940,6 @@
       <c r="AN61" t="n">
         <v>0</v>
       </c>
-      <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9420,25 +9013,22 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62" s="2" t="n">
+      <c r="O62" s="3" t="n">
         <v>43361</v>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" s="2" t="n">
+      <c r="S62" s="3" t="n">
         <v>43159</v>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="T62" s="3" t="n">
         <v>43167</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>43179</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>43202</v>
       </c>
-      <c r="W62" s="2" t="n">
+      <c r="W62" s="3" t="n">
         <v>43241</v>
       </c>
       <c r="X62" t="inlineStr">
@@ -9446,7 +9036,6 @@
           <t>J.C DELA VEGA CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
@@ -9494,7 +9083,6 @@
       <c r="AN62" t="n">
         <v>0</v>
       </c>
-      <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9557,7 +9145,6 @@
       <c r="K63" t="n">
         <v>2548844.06</v>
       </c>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9566,15 +9153,12 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
           <t>092-INFRA18-008</t>
         </is>
       </c>
-      <c r="S63" s="2" t="n">
+      <c r="S63" s="3" t="n">
         <v>43328</v>
       </c>
       <c r="T63" t="inlineStr">
@@ -9582,17 +9166,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U63" s="2" t="n">
+      <c r="U63" s="3" t="n">
         <v>43334</v>
       </c>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr">
         <is>
           <t>EDTAHA BUILDERS, INC</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
@@ -9640,7 +9221,6 @@
       <c r="AN63" t="n">
         <v>0</v>
       </c>
-      <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9703,7 +9283,6 @@
       <c r="K64" t="n">
         <v>2506678.54</v>
       </c>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9712,27 +9291,21 @@
       <c r="N64" t="n">
         <v>1</v>
       </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" s="2" t="n">
+      <c r="S64" s="3" t="n">
         <v>43319</v>
       </c>
-      <c r="T64" s="2" t="n">
+      <c r="T64" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="U64" s="2" t="n">
+      <c r="U64" s="3" t="n">
         <v>43348</v>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="V64" s="3" t="n">
         <v>43351</v>
       </c>
-      <c r="W64" s="2" t="n">
+      <c r="W64" s="3" t="n">
         <v>43356</v>
       </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
@@ -9780,7 +9353,6 @@
       <c r="AN64" t="n">
         <v>0</v>
       </c>
-      <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9843,7 +9415,6 @@
       <c r="K65" t="n">
         <v>3504891.44</v>
       </c>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9852,17 +9423,6 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
@@ -9910,7 +9470,6 @@
       <c r="AN65" t="n">
         <v>0</v>
       </c>
-      <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9943,7 +9502,6 @@
           <t>Valencia City</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>Valencia City NHS</t>
@@ -9982,27 +9540,21 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" s="2" t="n">
+      <c r="S66" s="3" t="n">
         <v>43259</v>
       </c>
-      <c r="T66" s="2" t="n">
+      <c r="T66" s="3" t="n">
         <v>43265</v>
       </c>
-      <c r="U66" s="2" t="n">
+      <c r="U66" s="3" t="n">
         <v>43283</v>
       </c>
-      <c r="V66" s="2" t="n">
+      <c r="V66" s="3" t="n">
         <v>43291</v>
       </c>
-      <c r="W66" s="2" t="n">
+      <c r="W66" s="3" t="n">
         <v>43319</v>
       </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
@@ -10050,7 +9602,6 @@
       <c r="AN66" t="n">
         <v>0</v>
       </c>
-      <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10115,7 +9666,6 @@
       <c r="K67" t="n">
         <v>804834.05</v>
       </c>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10124,19 +9674,9 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" s="2" t="n">
+      <c r="S67" s="3" t="n">
         <v>43743</v>
       </c>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
@@ -10184,7 +9724,6 @@
       <c r="AN67" t="n">
         <v>0</v>
       </c>
-      <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10249,7 +9788,6 @@
       <c r="K68" t="n">
         <v>775314.25</v>
       </c>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10258,27 +9796,20 @@
       <c r="N68" t="n">
         <v>1</v>
       </c>
-      <c r="O68" s="2" t="n">
+      <c r="O68" s="3" t="n">
         <v>44209</v>
       </c>
-      <c r="P68" s="2" t="n">
+      <c r="P68" s="3" t="n">
         <v>44429</v>
       </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" s="2" t="n">
+      <c r="S68" s="3" t="n">
         <v>43744</v>
       </c>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr">
         <is>
           <t>Maxwell EECS</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
@@ -10326,7 +9857,6 @@
       <c r="AN68" t="n">
         <v>0</v>
       </c>
-      <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10391,7 +9921,6 @@
       <c r="K69" t="n">
         <v>588498.6</v>
       </c>
-      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10400,27 +9929,20 @@
       <c r="N69" t="n">
         <v>1</v>
       </c>
-      <c r="O69" s="2" t="n">
+      <c r="O69" s="3" t="n">
         <v>44186</v>
       </c>
-      <c r="P69" s="2" t="n">
+      <c r="P69" s="3" t="n">
         <v>44434</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" s="2" t="n">
+      <c r="S69" s="3" t="n">
         <v>43745</v>
       </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr">
         <is>
           <t>Maxwell EECS</t>
         </is>
       </c>
-      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
@@ -10468,7 +9990,6 @@
       <c r="AN69" t="n">
         <v>0</v>
       </c>
-      <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10533,7 +10054,6 @@
       <c r="K70" t="n">
         <v>647341.99</v>
       </c>
-      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10542,27 +10062,20 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70" s="2" t="n">
+      <c r="O70" s="3" t="n">
         <v>44186</v>
       </c>
-      <c r="P70" s="2" t="n">
+      <c r="P70" s="3" t="n">
         <v>44434</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" s="2" t="n">
+      <c r="S70" s="3" t="n">
         <v>43746</v>
       </c>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr">
         <is>
           <t>Maxwell EECS</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
@@ -10610,7 +10123,6 @@
       <c r="AN70" t="n">
         <v>0</v>
       </c>
-      <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10675,7 +10187,6 @@
       <c r="K71" t="n">
         <v>538656.5699999999</v>
       </c>
-      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10684,27 +10195,20 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71" s="2" t="n">
+      <c r="O71" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>44430</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" s="2" t="n">
+      <c r="S71" s="3" t="n">
         <v>43747</v>
       </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
           <t>Maxwell EECS</t>
         </is>
       </c>
-      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
@@ -10752,7 +10256,6 @@
       <c r="AN71" t="n">
         <v>0</v>
       </c>
-      <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10817,7 +10320,6 @@
       <c r="K72" t="n">
         <v>853065.5600000001</v>
       </c>
-      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10826,25 +10328,17 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
-      <c r="O72" s="2" t="n">
+      <c r="O72" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" s="2" t="n">
+      <c r="S72" s="3" t="n">
         <v>43748</v>
       </c>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr">
         <is>
           <t>Ariane Construction and supply</t>
         </is>
       </c>
-      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
@@ -10892,7 +10386,6 @@
       <c r="AN72" t="n">
         <v>0</v>
       </c>
-      <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10957,7 +10450,6 @@
       <c r="K73" t="n">
         <v>697653.39</v>
       </c>
-      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10971,22 +10463,19 @@
           <t>Awaiting schedule of local electric cooperative.</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" s="2" t="n">
+      <c r="S73" s="3" t="n">
         <v>43717</v>
       </c>
-      <c r="T73" s="2" t="n">
+      <c r="T73" s="3" t="n">
         <v>43724</v>
       </c>
-      <c r="U73" s="2" t="n">
+      <c r="U73" s="3" t="n">
         <v>43738</v>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="V73" s="3" t="n">
         <v>43790</v>
       </c>
-      <c r="W73" s="2" t="n">
+      <c r="W73" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="X73" t="inlineStr">
@@ -10994,7 +10483,6 @@
           <t>CESCO</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="n">
         <v>0</v>
       </c>
@@ -11042,7 +10530,6 @@
       <c r="AN73" t="n">
         <v>0</v>
       </c>
-      <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11099,11 +10586,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>1000263.21</v>
       </c>
-      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11112,17 +10597,6 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="n">
         <v>0</v>
       </c>
@@ -11170,7 +10644,6 @@
       <c r="AN74" t="n">
         <v>0</v>
       </c>
-      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11227,11 +10700,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>1255382.9</v>
       </c>
-      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11245,22 +10716,19 @@
           <t>Awaiting schedule of local electric cooperative.</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" s="2" t="n">
+      <c r="S75" s="3" t="n">
         <v>43446</v>
       </c>
-      <c r="T75" s="2" t="n">
+      <c r="T75" s="3" t="n">
         <v>43460</v>
       </c>
-      <c r="U75" s="2" t="n">
+      <c r="U75" s="3" t="n">
         <v>43460</v>
       </c>
-      <c r="V75" s="2" t="n">
+      <c r="V75" s="3" t="n">
         <v>43469</v>
       </c>
-      <c r="W75" s="2" t="n">
+      <c r="W75" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="X75" t="inlineStr">
@@ -11268,7 +10736,6 @@
           <t>Brima Cons. &amp; Ent.</t>
         </is>
       </c>
-      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="n">
         <v>0</v>
       </c>
@@ -11316,7 +10783,6 @@
       <c r="AN75" t="n">
         <v>0</v>
       </c>
-      <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11381,7 +10847,6 @@
       <c r="K76" t="n">
         <v>1790256.84</v>
       </c>
-      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11390,17 +10855,6 @@
       <c r="N76" t="n">
         <v>1</v>
       </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="n">
         <v>0</v>
       </c>
@@ -11448,7 +10902,6 @@
       <c r="AN76" t="n">
         <v>0</v>
       </c>
-      <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11505,11 +10958,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>1941221.11</v>
       </c>
-      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11518,17 +10969,6 @@
       <c r="N77" t="n">
         <v>1</v>
       </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="n">
         <v>0</v>
       </c>
@@ -11576,7 +11016,6 @@
       <c r="AN77" t="n">
         <v>0</v>
       </c>
-      <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11633,11 +11072,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>2328026.76</v>
       </c>
-      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11646,17 +11083,6 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="n">
         <v>0</v>
       </c>
@@ -11704,7 +11130,6 @@
       <c r="AN78" t="n">
         <v>0</v>
       </c>
-      <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11769,7 +11194,6 @@
       <c r="K79" t="n">
         <v>1439467.18</v>
       </c>
-      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11783,22 +11207,19 @@
           <t>Awaiting schedule of local electric cooperative.</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" s="2" t="n">
+      <c r="S79" s="3" t="n">
         <v>43717</v>
       </c>
-      <c r="T79" s="2" t="n">
+      <c r="T79" s="3" t="n">
         <v>43724</v>
       </c>
-      <c r="U79" s="2" t="n">
+      <c r="U79" s="3" t="n">
         <v>43738</v>
       </c>
-      <c r="V79" s="2" t="n">
+      <c r="V79" s="3" t="n">
         <v>43790</v>
       </c>
-      <c r="W79" s="2" t="n">
+      <c r="W79" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="X79" t="inlineStr">
@@ -11806,7 +11227,6 @@
           <t>CESCO</t>
         </is>
       </c>
-      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="n">
         <v>0</v>
       </c>
@@ -11854,7 +11274,6 @@
       <c r="AN79" t="n">
         <v>0</v>
       </c>
-      <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11919,7 +11338,6 @@
       <c r="K80" t="n">
         <v>947753.04</v>
       </c>
-      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11933,22 +11351,19 @@
           <t>Awaiting schedule of local electric cooperative.</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" s="2" t="n">
+      <c r="S80" s="3" t="n">
         <v>43717</v>
       </c>
-      <c r="T80" s="2" t="n">
+      <c r="T80" s="3" t="n">
         <v>43724</v>
       </c>
-      <c r="U80" s="2" t="n">
+      <c r="U80" s="3" t="n">
         <v>43738</v>
       </c>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="3" t="n">
         <v>43790</v>
       </c>
-      <c r="W80" s="2" t="n">
+      <c r="W80" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="X80" t="inlineStr">
@@ -11956,7 +11371,6 @@
           <t>CESCO</t>
         </is>
       </c>
-      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="n">
         <v>0</v>
       </c>
@@ -12004,7 +11418,6 @@
       <c r="AN80" t="n">
         <v>0</v>
       </c>
-      <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12061,11 +11474,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>881941.4399999999</v>
       </c>
-      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12074,17 +11485,6 @@
       <c r="N81" t="n">
         <v>1</v>
       </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="n">
         <v>0</v>
       </c>
@@ -12132,7 +11532,6 @@
       <c r="AN81" t="n">
         <v>0</v>
       </c>
-      <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12189,11 +11588,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>1335878.46</v>
       </c>
-      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12207,22 +11604,19 @@
           <t>Awaiting schedule of local electric cooperative.</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" s="2" t="n">
+      <c r="S82" s="3" t="n">
         <v>43446</v>
       </c>
-      <c r="T82" s="2" t="n">
+      <c r="T82" s="3" t="n">
         <v>43460</v>
       </c>
-      <c r="U82" s="2" t="n">
+      <c r="U82" s="3" t="n">
         <v>43460</v>
       </c>
-      <c r="V82" s="2" t="n">
+      <c r="V82" s="3" t="n">
         <v>43469</v>
       </c>
-      <c r="W82" s="2" t="n">
+      <c r="W82" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="X82" t="inlineStr">
@@ -12230,7 +11624,6 @@
           <t>Brima Cons. &amp; Ent.</t>
         </is>
       </c>
-      <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="n">
         <v>0</v>
       </c>
@@ -12278,7 +11671,6 @@
       <c r="AN82" t="n">
         <v>0</v>
       </c>
-      <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12343,7 +11735,6 @@
       <c r="K83" t="n">
         <v>1031342.96</v>
       </c>
-      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12352,17 +11743,6 @@
       <c r="N83" t="n">
         <v>1</v>
       </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="n">
         <v>0</v>
       </c>
@@ -12410,7 +11790,6 @@
       <c r="AN83" t="n">
         <v>0</v>
       </c>
-      <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12467,11 +11846,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>2342064.6</v>
       </c>
-      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12480,17 +11857,6 @@
       <c r="N84" t="n">
         <v>1</v>
       </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="n">
         <v>0</v>
       </c>
@@ -12538,7 +11904,6 @@
       <c r="AN84" t="n">
         <v>0</v>
       </c>
-      <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12595,11 +11960,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>1560623.42</v>
       </c>
-      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12608,17 +11971,6 @@
       <c r="N85" t="n">
         <v>1</v>
       </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="n">
         <v>0</v>
       </c>
@@ -12666,7 +12018,6 @@
       <c r="AN85" t="n">
         <v>0</v>
       </c>
-      <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12723,11 +12074,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>547270.26</v>
       </c>
-      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12736,17 +12085,6 @@
       <c r="N86" t="n">
         <v>1</v>
       </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="n">
         <v>0</v>
       </c>
@@ -12794,7 +12132,6 @@
       <c r="AN86" t="n">
         <v>0</v>
       </c>
-      <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12859,7 +12196,6 @@
       <c r="K87" t="n">
         <v>853842.16</v>
       </c>
-      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12868,17 +12204,6 @@
       <c r="N87" t="n">
         <v>1</v>
       </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="n">
         <v>0</v>
       </c>
@@ -12926,7 +12251,6 @@
       <c r="AN87" t="n">
         <v>0</v>
       </c>
-      <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12983,11 +12307,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>1423490.89</v>
       </c>
-      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12996,17 +12318,6 @@
       <c r="N88" t="n">
         <v>1</v>
       </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="n">
         <v>0</v>
       </c>
@@ -13054,7 +12365,6 @@
       <c r="AN88" t="n">
         <v>0</v>
       </c>
-      <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13119,7 +12429,6 @@
       <c r="K89" t="n">
         <v>1621312.18</v>
       </c>
-      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13128,17 +12437,6 @@
       <c r="N89" t="n">
         <v>1</v>
       </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="n">
         <v>0</v>
       </c>
@@ -13186,7 +12484,6 @@
       <c r="AN89" t="n">
         <v>0</v>
       </c>
-      <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13251,7 +12548,6 @@
       <c r="K90" t="n">
         <v>856819.97</v>
       </c>
-      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13260,17 +12556,6 @@
       <c r="N90" t="n">
         <v>1</v>
       </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="n">
         <v>0</v>
       </c>
@@ -13318,7 +12603,6 @@
       <c r="AN90" t="n">
         <v>0</v>
       </c>
-      <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13375,11 +12659,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>2185874.99</v>
       </c>
-      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13388,17 +12670,6 @@
       <c r="N91" t="n">
         <v>1</v>
       </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="n">
         <v>0</v>
       </c>
@@ -13446,7 +12717,6 @@
       <c r="AN91" t="n">
         <v>0</v>
       </c>
-      <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13511,7 +12781,6 @@
       <c r="K92" t="n">
         <v>1504365.26</v>
       </c>
-      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13520,17 +12789,6 @@
       <c r="N92" t="n">
         <v>1</v>
       </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="n">
         <v>0</v>
       </c>
@@ -13578,7 +12836,6 @@
       <c r="AN92" t="n">
         <v>0</v>
       </c>
-      <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13643,7 +12900,6 @@
       <c r="K93" t="n">
         <v>1214394.89</v>
       </c>
-      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13652,17 +12908,6 @@
       <c r="N93" t="n">
         <v>1</v>
       </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="n">
         <v>0</v>
       </c>
@@ -13710,7 +12955,6 @@
       <c r="AN93" t="n">
         <v>0</v>
       </c>
-      <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13767,11 +13011,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>770450.33</v>
       </c>
-      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13780,17 +13022,6 @@
       <c r="N94" t="n">
         <v>1</v>
       </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="n">
         <v>0</v>
       </c>
@@ -13838,7 +13069,6 @@
       <c r="AN94" t="n">
         <v>0</v>
       </c>
-      <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13903,7 +13133,6 @@
       <c r="K95" t="n">
         <v>416813.62</v>
       </c>
-      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13912,17 +13141,6 @@
       <c r="N95" t="n">
         <v>1</v>
       </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="n">
         <v>0</v>
       </c>
@@ -13970,7 +13188,6 @@
       <c r="AN95" t="n">
         <v>0</v>
       </c>
-      <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14027,11 +13244,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>1355233.48</v>
       </c>
-      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14040,17 +13255,6 @@
       <c r="N96" t="n">
         <v>1</v>
       </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="n">
         <v>0</v>
       </c>
@@ -14098,7 +13302,6 @@
       <c r="AN96" t="n">
         <v>0</v>
       </c>
-      <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14163,7 +13366,6 @@
       <c r="K97" t="n">
         <v>5878705.96</v>
       </c>
-      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14172,17 +13374,6 @@
       <c r="N97" t="n">
         <v>1</v>
       </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="n">
         <v>0</v>
       </c>
@@ -14230,7 +13421,6 @@
       <c r="AN97" t="n">
         <v>0</v>
       </c>
-      <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14295,7 +13485,6 @@
       <c r="K98" t="n">
         <v>4884049.14</v>
       </c>
-      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14304,17 +13493,6 @@
       <c r="N98" t="n">
         <v>1</v>
       </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="n">
         <v>0</v>
       </c>
@@ -14362,7 +13540,6 @@
       <c r="AN98" t="n">
         <v>0</v>
       </c>
-      <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14427,7 +13604,6 @@
       <c r="K99" t="n">
         <v>6356922.23</v>
       </c>
-      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14436,17 +13612,6 @@
       <c r="N99" t="n">
         <v>1</v>
       </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="n">
         <v>0</v>
       </c>
@@ -14494,7 +13659,6 @@
       <c r="AN99" t="n">
         <v>0</v>
       </c>
-      <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14559,7 +13723,6 @@
       <c r="K100" t="n">
         <v>8256610.31</v>
       </c>
-      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14568,17 +13731,6 @@
       <c r="N100" t="n">
         <v>1</v>
       </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="n">
         <v>0</v>
       </c>
@@ -14626,7 +13778,6 @@
       <c r="AN100" t="n">
         <v>0</v>
       </c>
-      <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14691,7 +13842,6 @@
       <c r="K101" t="n">
         <v>5889258.72</v>
       </c>
-      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14700,17 +13850,6 @@
       <c r="N101" t="n">
         <v>1</v>
       </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="n">
         <v>0</v>
       </c>
@@ -14758,7 +13897,6 @@
       <c r="AN101" t="n">
         <v>0</v>
       </c>
-      <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14823,7 +13961,6 @@
       <c r="K102" t="n">
         <v>7033670.9</v>
       </c>
-      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14832,17 +13969,6 @@
       <c r="N102" t="n">
         <v>1</v>
       </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="n">
         <v>0</v>
       </c>
@@ -14890,7 +14016,6 @@
       <c r="AN102" t="n">
         <v>0</v>
       </c>
-      <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14955,7 +14080,6 @@
       <c r="K103" t="n">
         <v>5887148.17</v>
       </c>
-      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14964,17 +14088,6 @@
       <c r="N103" t="n">
         <v>1</v>
       </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="n">
         <v>0</v>
       </c>
@@ -15022,7 +14135,6 @@
       <c r="AN103" t="n">
         <v>0</v>
       </c>
-      <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15087,7 +14199,6 @@
       <c r="K104" t="n">
         <v>6356922.23</v>
       </c>
-      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15096,17 +14207,6 @@
       <c r="N104" t="n">
         <v>1</v>
       </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="n">
         <v>0</v>
       </c>
@@ -15154,7 +14254,6 @@
       <c r="AN104" t="n">
         <v>0</v>
       </c>
-      <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15219,7 +14318,6 @@
       <c r="K105" t="n">
         <v>7770416.82</v>
       </c>
-      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15228,17 +14326,6 @@
       <c r="N105" t="n">
         <v>1</v>
       </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="n">
         <v>0</v>
       </c>
@@ -15286,7 +14373,6 @@
       <c r="AN105" t="n">
         <v>0</v>
       </c>
-      <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15351,7 +14437,6 @@
       <c r="K106" t="n">
         <v>5346837.73</v>
       </c>
-      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15360,17 +14445,6 @@
       <c r="N106" t="n">
         <v>1</v>
       </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="n">
         <v>0</v>
       </c>
@@ -15418,7 +14492,6 @@
       <c r="AN106" t="n">
         <v>0</v>
       </c>
-      <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15483,7 +14556,6 @@
       <c r="K107" t="n">
         <v>5889258.72</v>
       </c>
-      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15492,17 +14564,6 @@
       <c r="N107" t="n">
         <v>1</v>
       </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="n">
         <v>0</v>
       </c>
@@ -15550,7 +14611,6 @@
       <c r="AN107" t="n">
         <v>0</v>
       </c>
-      <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15615,7 +14675,6 @@
       <c r="K108" t="n">
         <v>7038947.28</v>
       </c>
-      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15624,17 +14683,6 @@
       <c r="N108" t="n">
         <v>1</v>
       </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="n">
         <v>0</v>
       </c>
@@ -15682,7 +14730,6 @@
       <c r="AN108" t="n">
         <v>0</v>
       </c>
-      <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15747,7 +14794,6 @@
       <c r="K109" t="n">
         <v>7017841.75</v>
       </c>
-      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15756,17 +14802,6 @@
       <c r="N109" t="n">
         <v>1</v>
       </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="n">
         <v>0</v>
       </c>
@@ -15814,7 +14849,6 @@
       <c r="AN109" t="n">
         <v>0</v>
       </c>
-      <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15879,7 +14913,6 @@
       <c r="K110" t="n">
         <v>5539849.8</v>
       </c>
-      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15888,17 +14921,6 @@
       <c r="N110" t="n">
         <v>1</v>
       </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="n">
         <v>0</v>
       </c>
@@ -15946,7 +14968,6 @@
       <c r="AN110" t="n">
         <v>0</v>
       </c>
-      <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16011,7 +15032,6 @@
       <c r="K111" t="n">
         <v>5362666.88</v>
       </c>
-      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16020,17 +15040,6 @@
       <c r="N111" t="n">
         <v>1</v>
       </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="n">
         <v>0</v>
       </c>
@@ -16078,7 +15087,6 @@
       <c r="AN111" t="n">
         <v>0</v>
       </c>
-      <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16143,7 +15151,6 @@
       <c r="K112" t="n">
         <v>1134057.7</v>
       </c>
-      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16152,17 +15159,6 @@
       <c r="N112" t="n">
         <v>1</v>
       </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="n">
         <v>0</v>
       </c>
@@ -16210,7 +15206,6 @@
       <c r="AN112" t="n">
         <v>0</v>
       </c>
-      <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16275,7 +15270,6 @@
       <c r="K113" t="n">
         <v>1152391.16</v>
       </c>
-      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16284,17 +15278,6 @@
       <c r="N113" t="n">
         <v>1</v>
       </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="n">
         <v>0</v>
       </c>
@@ -16342,7 +15325,6 @@
       <c r="AN113" t="n">
         <v>0</v>
       </c>
-      <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16407,7 +15389,6 @@
       <c r="K114" t="n">
         <v>1199571</v>
       </c>
-      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16416,17 +15397,6 @@
       <c r="N114" t="n">
         <v>1</v>
       </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="n">
         <v>0</v>
       </c>
@@ -16474,7 +15444,6 @@
       <c r="AN114" t="n">
         <v>0</v>
       </c>
-      <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16539,7 +15508,6 @@
       <c r="K115" t="n">
         <v>4287768.25</v>
       </c>
-      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16548,17 +15516,6 @@
       <c r="N115" t="n">
         <v>1</v>
       </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="n">
         <v>0</v>
       </c>
@@ -16606,7 +15563,6 @@
       <c r="AN115" t="n">
         <v>0</v>
       </c>
-      <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16671,7 +15627,6 @@
       <c r="K116" t="n">
         <v>3133952.8</v>
       </c>
-      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16680,17 +15635,6 @@
       <c r="N116" t="n">
         <v>1</v>
       </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="n">
         <v>0</v>
       </c>
@@ -16738,7 +15682,6 @@
       <c r="AN116" t="n">
         <v>0</v>
       </c>
-      <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16803,7 +15746,6 @@
       <c r="K117" t="n">
         <v>2730152.36</v>
       </c>
-      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16812,17 +15754,6 @@
       <c r="N117" t="n">
         <v>1</v>
       </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="n">
         <v>0</v>
       </c>
@@ -16870,7 +15801,6 @@
       <c r="AN117" t="n">
         <v>0</v>
       </c>
-      <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16903,7 +15833,6 @@
           <t>Malaybalay City</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>Agalayan ES</t>
@@ -16933,7 +15862,6 @@
       <c r="K118" t="n">
         <v>4753770.96</v>
       </c>
-      <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16942,17 +15870,6 @@
       <c r="N118" t="n">
         <v>1</v>
       </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="n">
         <v>0</v>
       </c>
@@ -17000,7 +15917,6 @@
       <c r="AN118" t="n">
         <v>0</v>
       </c>
-      <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17065,7 +15981,6 @@
       <c r="K119" t="n">
         <v>5069639.71</v>
       </c>
-      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17074,10 +15989,9 @@
       <c r="N119" t="n">
         <v>1</v>
       </c>
-      <c r="O119" s="2" t="n">
+      <c r="O119" s="3" t="n">
         <v>44859</v>
       </c>
-      <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr">
         <is>
           <t>001-INFRA-2019</t>
@@ -17088,11 +16002,7 @@
           <t>001-INFRA-2019</t>
         </is>
       </c>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" s="2" t="n">
+      <c r="W119" s="3" t="n">
         <v>43786</v>
       </c>
       <c r="X119" t="inlineStr">
@@ -17100,7 +16010,6 @@
           <t>Eriane Construction and Supply</t>
         </is>
       </c>
-      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="n">
         <v>0</v>
       </c>
@@ -17148,7 +16057,6 @@
       <c r="AN119" t="n">
         <v>0</v>
       </c>
-      <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17181,7 +16089,6 @@
           <t>Malaybalay City</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>Banglay NHS</t>
@@ -17211,7 +16118,6 @@
       <c r="K120" t="n">
         <v>2925354.21</v>
       </c>
-      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17220,10 +16126,9 @@
       <c r="N120" t="n">
         <v>1</v>
       </c>
-      <c r="O120" s="2" t="n">
+      <c r="O120" s="3" t="n">
         <v>44859</v>
       </c>
-      <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr">
         <is>
           <t>001-INFRA-2019</t>
@@ -17234,11 +16139,7 @@
           <t>001-INFRA-2019</t>
         </is>
       </c>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" s="2" t="n">
+      <c r="W120" s="3" t="n">
         <v>43786</v>
       </c>
       <c r="X120" t="inlineStr">
@@ -17246,7 +16147,6 @@
           <t>Eriane Construction and Supply</t>
         </is>
       </c>
-      <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="n">
         <v>0</v>
       </c>
@@ -17294,7 +16194,6 @@
       <c r="AN120" t="n">
         <v>0</v>
       </c>
-      <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17359,7 +16258,6 @@
       <c r="K121" t="n">
         <v>5689747.82</v>
       </c>
-      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17368,17 +16266,6 @@
       <c r="N121" t="n">
         <v>1</v>
       </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="n">
         <v>0</v>
       </c>
@@ -17426,7 +16313,6 @@
       <c r="AN121" t="n">
         <v>0</v>
       </c>
-      <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17491,7 +16377,6 @@
       <c r="K122" t="n">
         <v>4475570.89</v>
       </c>
-      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17500,17 +16385,6 @@
       <c r="N122" t="n">
         <v>1</v>
       </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="n">
         <v>0</v>
       </c>
@@ -17558,7 +16432,6 @@
       <c r="AN122" t="n">
         <v>0</v>
       </c>
-      <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17623,7 +16496,6 @@
       <c r="K123" t="n">
         <v>2882425.06</v>
       </c>
-      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17632,17 +16504,6 @@
       <c r="N123" t="n">
         <v>1</v>
       </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="n">
         <v>0</v>
       </c>
@@ -17690,7 +16551,6 @@
       <c r="AN123" t="n">
         <v>0</v>
       </c>
-      <c r="AO123" t="inlineStr"/>
       <c r="AP123" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17747,11 +16607,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
         <v>5788711.74</v>
       </c>
-      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17760,17 +16618,6 @@
       <c r="N124" t="n">
         <v>1</v>
       </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="n">
         <v>0</v>
       </c>
@@ -17818,7 +16665,6 @@
       <c r="AN124" t="n">
         <v>0</v>
       </c>
-      <c r="AO124" t="inlineStr"/>
       <c r="AP124" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17875,11 +16721,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>3139887.57</v>
       </c>
-      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17888,17 +16732,6 @@
       <c r="N125" t="n">
         <v>1</v>
       </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="n">
         <v>0</v>
       </c>
@@ -17946,7 +16779,6 @@
       <c r="AN125" t="n">
         <v>0</v>
       </c>
-      <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18003,11 +16835,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
         <v>5300533.22</v>
       </c>
-      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18016,17 +16846,6 @@
       <c r="N126" t="n">
         <v>1</v>
       </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="n">
         <v>0</v>
       </c>
@@ -18074,7 +16893,6 @@
       <c r="AN126" t="n">
         <v>0</v>
       </c>
-      <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18131,11 +16949,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
         <v>5827967.04</v>
       </c>
-      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18144,17 +16960,6 @@
       <c r="N127" t="n">
         <v>1</v>
       </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="n">
         <v>0</v>
       </c>
@@ -18202,7 +17007,6 @@
       <c r="AN127" t="n">
         <v>0</v>
       </c>
-      <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18259,11 +17063,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
         <v>5429912.66</v>
       </c>
-      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18272,17 +17074,6 @@
       <c r="N128" t="n">
         <v>1</v>
       </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="n">
         <v>0</v>
       </c>
@@ -18330,7 +17121,6 @@
       <c r="AN128" t="n">
         <v>0</v>
       </c>
-      <c r="AO128" t="inlineStr"/>
       <c r="AP128" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18387,11 +17177,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
         <v>5469168.94</v>
       </c>
-      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18400,17 +17188,6 @@
       <c r="N129" t="n">
         <v>1</v>
       </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="n">
         <v>0</v>
       </c>
@@ -18458,7 +17235,6 @@
       <c r="AN129" t="n">
         <v>0</v>
       </c>
-      <c r="AO129" t="inlineStr"/>
       <c r="AP129" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18523,7 +17299,6 @@
       <c r="K130" t="n">
         <v>5531661.99</v>
       </c>
-      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18532,17 +17307,6 @@
       <c r="N130" t="n">
         <v>1</v>
       </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="n">
         <v>0</v>
       </c>
@@ -18590,7 +17354,6 @@
       <c r="AN130" t="n">
         <v>0</v>
       </c>
-      <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18655,7 +17418,6 @@
       <c r="K131" t="n">
         <v>6369752.38</v>
       </c>
-      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18664,17 +17426,6 @@
       <c r="N131" t="n">
         <v>1</v>
       </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="n">
         <v>0</v>
       </c>
@@ -18722,7 +17473,6 @@
       <c r="AN131" t="n">
         <v>0</v>
       </c>
-      <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18798,10 +17548,9 @@
       <c r="N132" t="n">
         <v>1</v>
       </c>
-      <c r="O132" s="2" t="n">
+      <c r="O132" s="3" t="n">
         <v>43795</v>
       </c>
-      <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
           <t>ELEC 2019 - RX - OZAMIZ CITY - 002</t>
@@ -18812,19 +17561,19 @@
           <t>092-INFRA19-10</t>
         </is>
       </c>
-      <c r="S132" s="2" t="n">
+      <c r="S132" s="3" t="n">
         <v>43658</v>
       </c>
-      <c r="T132" s="2" t="n">
+      <c r="T132" s="3" t="n">
         <v>43669</v>
       </c>
-      <c r="U132" s="2" t="n">
+      <c r="U132" s="3" t="n">
         <v>43682</v>
       </c>
-      <c r="V132" s="2" t="n">
+      <c r="V132" s="3" t="n">
         <v>43699</v>
       </c>
-      <c r="W132" s="2" t="n">
+      <c r="W132" s="3" t="n">
         <v>43760</v>
       </c>
       <c r="X132" t="inlineStr">
@@ -18832,7 +17581,6 @@
           <t>JUNJING CONSTRUCTION &amp; GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="n">
         <v>0</v>
       </c>
@@ -18880,7 +17628,6 @@
       <c r="AN132" t="n">
         <v>0</v>
       </c>
-      <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18937,7 +17684,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
         <v>5190029.02</v>
       </c>
@@ -18952,10 +17698,9 @@
       <c r="N133" t="n">
         <v>1</v>
       </c>
-      <c r="O133" s="2" t="n">
+      <c r="O133" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr">
         <is>
           <t>ELEC 2019 - RX - OZAMIZ CITY - 003</t>
@@ -18966,19 +17711,19 @@
           <t>092-INFRA19-11</t>
         </is>
       </c>
-      <c r="S133" s="2" t="n">
+      <c r="S133" s="3" t="n">
         <v>43658</v>
       </c>
-      <c r="T133" s="2" t="n">
+      <c r="T133" s="3" t="n">
         <v>43669</v>
       </c>
-      <c r="U133" s="2" t="n">
+      <c r="U133" s="3" t="n">
         <v>43682</v>
       </c>
-      <c r="V133" s="2" t="n">
+      <c r="V133" s="3" t="n">
         <v>43699</v>
       </c>
-      <c r="W133" s="2" t="n">
+      <c r="W133" s="3" t="n">
         <v>43760</v>
       </c>
       <c r="X133" t="inlineStr">
@@ -18986,7 +17731,6 @@
           <t>JUNJING CONSTRUCTION &amp; GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="n">
         <v>0</v>
       </c>
@@ -19034,7 +17778,6 @@
       <c r="AN133" t="n">
         <v>0</v>
       </c>
-      <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19110,10 +17853,9 @@
       <c r="N134" t="n">
         <v>1</v>
       </c>
-      <c r="O134" s="2" t="n">
+      <c r="O134" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr">
         <is>
           <t>ELEC 2019 - RX - OZAMIZ CITY - 001</t>
@@ -19124,19 +17866,19 @@
           <t>092-INFRA19-08</t>
         </is>
       </c>
-      <c r="S134" s="2" t="n">
+      <c r="S134" s="3" t="n">
         <v>43400</v>
       </c>
-      <c r="T134" s="2" t="n">
+      <c r="T134" s="3" t="n">
         <v>43409</v>
       </c>
-      <c r="U134" s="2" t="n">
+      <c r="U134" s="3" t="n">
         <v>43424</v>
       </c>
-      <c r="V134" s="2" t="n">
+      <c r="V134" s="3" t="n">
         <v>43469</v>
       </c>
-      <c r="W134" s="2" t="n">
+      <c r="W134" s="3" t="n">
         <v>43705</v>
       </c>
       <c r="X134" t="inlineStr">
@@ -19144,7 +17886,6 @@
           <t>JUNJING CONSTRUCTION &amp; GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="n">
         <v>0</v>
       </c>
@@ -19192,7 +17933,6 @@
       <c r="AN134" t="n">
         <v>0</v>
       </c>
-      <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19249,7 +17989,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
         <v>3684680.29</v>
       </c>
@@ -19264,10 +18003,9 @@
       <c r="N135" t="n">
         <v>1</v>
       </c>
-      <c r="O135" s="2" t="n">
+      <c r="O135" s="3" t="n">
         <v>43795</v>
       </c>
-      <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr">
         <is>
           <t>ELEC 2019 - RX - OZAMIZ CITY - 004</t>
@@ -19278,19 +18016,19 @@
           <t>092-INFRA19-09</t>
         </is>
       </c>
-      <c r="S135" s="2" t="n">
+      <c r="S135" s="3" t="n">
         <v>43400</v>
       </c>
-      <c r="T135" s="2" t="n">
+      <c r="T135" s="3" t="n">
         <v>43409</v>
       </c>
-      <c r="U135" s="2" t="n">
+      <c r="U135" s="3" t="n">
         <v>43424</v>
       </c>
-      <c r="V135" s="2" t="n">
+      <c r="V135" s="3" t="n">
         <v>43469</v>
       </c>
-      <c r="W135" s="2" t="n">
+      <c r="W135" s="3" t="n">
         <v>43705</v>
       </c>
       <c r="X135" t="inlineStr">
@@ -19298,7 +18036,6 @@
           <t>JUNJING CONSTRUCTION &amp; GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="n">
         <v>0</v>
       </c>
@@ -19346,7 +18083,6 @@
       <c r="AN135" t="n">
         <v>0</v>
       </c>
-      <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19403,11 +18139,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
         <v>2116192.85</v>
       </c>
-      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
           <t>ONGOING</t>
@@ -19416,15 +18150,13 @@
       <c r="N136" t="n">
         <v>0.7</v>
       </c>
-      <c r="O136" s="2" t="n">
+      <c r="O136" s="3" t="n">
         <v>45505</v>
       </c>
-      <c r="P136" t="inlineStr"/>
       <c r="Q136" t="n">
         <v>43191</v>
       </c>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" s="2" t="n">
+      <c r="S136" s="3" t="n">
         <v>44128</v>
       </c>
       <c r="T136" t="inlineStr">
@@ -19432,13 +18164,13 @@
           <t>Negotiated Procurement</t>
         </is>
       </c>
-      <c r="U136" s="2" t="n">
+      <c r="U136" s="3" t="n">
         <v>43455</v>
       </c>
-      <c r="V136" s="2" t="n">
+      <c r="V136" s="3" t="n">
         <v>43503</v>
       </c>
-      <c r="W136" s="2" t="n">
+      <c r="W136" s="3" t="n">
         <v>43705</v>
       </c>
       <c r="X136" t="inlineStr">
@@ -19498,8 +18230,6 @@
       <c r="AN136" t="n">
         <v>0</v>
       </c>
-      <c r="AO136" t="inlineStr"/>
-      <c r="AP136" t="inlineStr"/>
       <c r="AQ136" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -19551,11 +18281,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
         <v>3140634.91</v>
       </c>
-      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19564,8 +18292,6 @@
       <c r="N137" t="n">
         <v>1</v>
       </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
           <t>Elec2020-RX-Bukidnon-001</t>
@@ -19576,15 +18302,13 @@
           <t>05-2020</t>
         </is>
       </c>
-      <c r="S137" s="2" t="n">
+      <c r="S137" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" s="2" t="n">
+      <c r="V137" s="3" t="n">
         <v>44088</v>
       </c>
-      <c r="W137" s="2" t="n">
+      <c r="W137" s="3" t="n">
         <v>44109</v>
       </c>
       <c r="X137" t="inlineStr">
@@ -19592,7 +18316,6 @@
           <t>METERKING, INC</t>
         </is>
       </c>
-      <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="n">
         <v>0</v>
       </c>
@@ -19629,14 +18352,12 @@
       <c r="AK137" t="n">
         <v>0</v>
       </c>
-      <c r="AL137" t="inlineStr"/>
       <c r="AM137" t="n">
         <v>1</v>
       </c>
       <c r="AN137" t="n">
         <v>0</v>
       </c>
-      <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19693,11 +18414,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
         <v>4012505.61</v>
       </c>
-      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
           <t>ONGOING</t>
@@ -19706,10 +18425,9 @@
       <c r="N138" t="n">
         <v>0.9</v>
       </c>
-      <c r="O138" s="2" t="n">
+      <c r="O138" s="3" t="n">
         <v>45505</v>
       </c>
-      <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr">
         <is>
           <t>Elec2020-RX-Bukidnon-002</t>
@@ -19720,19 +18438,19 @@
           <t>08-2021</t>
         </is>
       </c>
-      <c r="S138" s="2" t="n">
+      <c r="S138" s="3" t="n">
         <v>44419</v>
       </c>
-      <c r="T138" s="2" t="n">
+      <c r="T138" s="3" t="n">
         <v>44427</v>
       </c>
-      <c r="U138" s="2" t="n">
+      <c r="U138" s="3" t="n">
         <v>44439</v>
       </c>
-      <c r="V138" s="2" t="n">
+      <c r="V138" s="3" t="n">
         <v>44467</v>
       </c>
-      <c r="W138" s="2" t="n">
+      <c r="W138" s="3" t="n">
         <v>44481</v>
       </c>
       <c r="X138" t="inlineStr">
@@ -19781,15 +18499,12 @@
       <c r="AK138" t="n">
         <v>0</v>
       </c>
-      <c r="AL138" t="inlineStr"/>
       <c r="AM138" t="n">
         <v>0.9</v>
       </c>
       <c r="AN138" t="n">
         <v>0</v>
       </c>
-      <c r="AO138" t="inlineStr"/>
-      <c r="AP138" t="inlineStr"/>
       <c r="AQ138" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -19836,12 +18551,9 @@
       <c r="H139" t="n">
         <v>1</v>
       </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
         <v>1134744.87</v>
       </c>
-      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19850,10 +18562,9 @@
       <c r="N139" t="n">
         <v>1</v>
       </c>
-      <c r="O139" s="2" t="n">
+      <c r="O139" s="3" t="n">
         <v>44288</v>
       </c>
-      <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr">
         <is>
           <t>Elec2020-RX-Bukidnon-008</t>
@@ -19864,15 +18575,13 @@
           <t>10-2020</t>
         </is>
       </c>
-      <c r="S139" s="2" t="n">
+      <c r="S139" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" s="2" t="n">
+      <c r="V139" s="3" t="n">
         <v>44160</v>
       </c>
-      <c r="W139" s="2" t="n">
+      <c r="W139" s="3" t="n">
         <v>44176</v>
       </c>
       <c r="X139" t="inlineStr">
@@ -19880,7 +18589,6 @@
           <t>AN Escalante Construction, INC</t>
         </is>
       </c>
-      <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="n">
         <v>0</v>
       </c>
@@ -19917,14 +18625,12 @@
       <c r="AK139" t="n">
         <v>0</v>
       </c>
-      <c r="AL139" t="inlineStr"/>
       <c r="AM139" t="n">
         <v>1</v>
       </c>
       <c r="AN139" t="n">
         <v>0</v>
       </c>
-      <c r="AO139" t="inlineStr"/>
       <c r="AP139" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19981,11 +18687,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
         <v>1805170.52</v>
       </c>
-      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19994,8 +18698,7 @@
       <c r="N140" t="n">
         <v>1</v>
       </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" s="2" t="n">
+      <c r="P140" s="3" t="n">
         <v>44315</v>
       </c>
       <c r="Q140" t="inlineStr">
@@ -20008,15 +18711,13 @@
           <t>06-2020</t>
         </is>
       </c>
-      <c r="S140" s="2" t="n">
+      <c r="S140" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" s="2" t="n">
+      <c r="V140" s="3" t="n">
         <v>44088</v>
       </c>
-      <c r="W140" s="2" t="n">
+      <c r="W140" s="3" t="n">
         <v>44109</v>
       </c>
       <c r="X140" t="inlineStr">
@@ -20024,7 +18725,6 @@
           <t>AN Escalante Construction, INC</t>
         </is>
       </c>
-      <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="n">
         <v>0</v>
       </c>
@@ -20061,14 +18761,12 @@
       <c r="AK140" t="n">
         <v>0</v>
       </c>
-      <c r="AL140" t="inlineStr"/>
       <c r="AM140" t="n">
         <v>1</v>
       </c>
       <c r="AN140" t="n">
         <v>0</v>
       </c>
-      <c r="AO140" t="inlineStr"/>
       <c r="AP140" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20125,11 +18823,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
         <v>4112740.21</v>
       </c>
-      <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20143,7 +18839,7 @@
           <t>June 1. 2021</t>
         </is>
       </c>
-      <c r="P141" s="2" t="n">
+      <c r="P141" s="3" t="n">
         <v>44431</v>
       </c>
       <c r="Q141" t="inlineStr">
@@ -20156,19 +18852,14 @@
           <t>11-2020</t>
         </is>
       </c>
-      <c r="S141" s="2" t="n">
+      <c r="S141" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
           <t>AN Escalante Construction, INC</t>
         </is>
       </c>
-      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="n">
         <v>0</v>
       </c>
@@ -20205,14 +18896,12 @@
       <c r="AK141" t="n">
         <v>0</v>
       </c>
-      <c r="AL141" t="inlineStr"/>
       <c r="AM141" t="n">
         <v>1</v>
       </c>
       <c r="AN141" t="n">
         <v>0</v>
       </c>
-      <c r="AO141" t="inlineStr"/>
       <c r="AP141" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20264,12 +18953,9 @@
       <c r="H142" t="n">
         <v>1</v>
       </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
         <v>2416291.82</v>
       </c>
-      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20278,21 +18964,11 @@
       <c r="N142" t="n">
         <v>1</v>
       </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr">
         <is>
           <t>Elec2020-RX-Cagayan de Oro City-004</t>
         </is>
       </c>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="n">
         <v>0</v>
       </c>
@@ -20329,14 +19005,12 @@
       <c r="AK142" t="n">
         <v>0</v>
       </c>
-      <c r="AL142" t="inlineStr"/>
       <c r="AM142" t="n">
         <v>1</v>
       </c>
       <c r="AN142" t="n">
         <v>0</v>
       </c>
-      <c r="AO142" t="inlineStr"/>
       <c r="AP142" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20393,11 +19067,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
         <v>1825787.25</v>
       </c>
-      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20406,21 +19078,11 @@
       <c r="N143" t="n">
         <v>1</v>
       </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr">
         <is>
           <t>Elec2020-RX-Cagayan de Oro City-002</t>
         </is>
       </c>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="n">
         <v>0</v>
       </c>
@@ -20457,14 +19119,12 @@
       <c r="AK143" t="n">
         <v>0</v>
       </c>
-      <c r="AL143" t="inlineStr"/>
       <c r="AM143" t="n">
         <v>1</v>
       </c>
       <c r="AN143" t="n">
         <v>0</v>
       </c>
-      <c r="AO143" t="inlineStr"/>
       <c r="AP143" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20516,12 +19176,9 @@
       <c r="H144" t="n">
         <v>1</v>
       </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
         <v>1910588.72</v>
       </c>
-      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20530,21 +19187,11 @@
       <c r="N144" t="n">
         <v>1</v>
       </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr">
         <is>
           <t>Elec2020-RX-Cagayan de Oro City-003</t>
         </is>
       </c>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="n">
         <v>0</v>
       </c>
@@ -20581,14 +19228,12 @@
       <c r="AK144" t="n">
         <v>0</v>
       </c>
-      <c r="AL144" t="inlineStr"/>
       <c r="AM144" t="n">
         <v>1</v>
       </c>
       <c r="AN144" t="n">
         <v>0</v>
       </c>
-      <c r="AO144" t="inlineStr"/>
       <c r="AP144" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20640,12 +19285,9 @@
       <c r="H145" t="n">
         <v>1</v>
       </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
         <v>588467.67</v>
       </c>
-      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20654,17 +19296,6 @@
       <c r="N145" t="n">
         <v>1</v>
       </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="n">
         <v>0</v>
       </c>
@@ -20701,14 +19332,12 @@
       <c r="AK145" t="n">
         <v>0</v>
       </c>
-      <c r="AL145" t="inlineStr"/>
       <c r="AM145" t="n">
         <v>1</v>
       </c>
       <c r="AN145" t="n">
         <v>0</v>
       </c>
-      <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20760,12 +19389,9 @@
       <c r="H146" t="n">
         <v>1</v>
       </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
         <v>1972266.91</v>
       </c>
-      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20774,21 +19400,11 @@
       <c r="N146" t="n">
         <v>1</v>
       </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr">
         <is>
           <t>Elec2020-RX-Gingoog City-001</t>
         </is>
       </c>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="n">
         <v>0</v>
       </c>
@@ -20825,14 +19441,12 @@
       <c r="AK146" t="n">
         <v>0</v>
       </c>
-      <c r="AL146" t="inlineStr"/>
       <c r="AM146" t="n">
         <v>1</v>
       </c>
       <c r="AN146" t="n">
         <v>0</v>
       </c>
-      <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20884,12 +19498,9 @@
       <c r="H147" t="n">
         <v>1</v>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
         <v>2174179.03</v>
       </c>
-      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20898,21 +19509,11 @@
       <c r="N147" t="n">
         <v>1</v>
       </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr">
         <is>
           <t>Elec2020-RX-Gingoog City-004</t>
         </is>
       </c>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="n">
         <v>0</v>
       </c>
@@ -20949,14 +19550,12 @@
       <c r="AK147" t="n">
         <v>0</v>
       </c>
-      <c r="AL147" t="inlineStr"/>
       <c r="AM147" t="n">
         <v>1</v>
       </c>
       <c r="AN147" t="n">
         <v>0</v>
       </c>
-      <c r="AO147" t="inlineStr"/>
       <c r="AP147" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21008,12 +19607,9 @@
       <c r="H148" t="n">
         <v>1</v>
       </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
         <v>588467.67</v>
       </c>
-      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21022,17 +19618,6 @@
       <c r="N148" t="n">
         <v>1</v>
       </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="n">
         <v>0</v>
       </c>
@@ -21069,14 +19654,12 @@
       <c r="AK148" t="n">
         <v>0</v>
       </c>
-      <c r="AL148" t="inlineStr"/>
       <c r="AM148" t="n">
         <v>1</v>
       </c>
       <c r="AN148" t="n">
         <v>0</v>
       </c>
-      <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21128,12 +19711,9 @@
       <c r="H149" t="n">
         <v>1</v>
       </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
         <v>4684897.73</v>
       </c>
-      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21142,21 +19722,11 @@
       <c r="N149" t="n">
         <v>1</v>
       </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr">
         <is>
           <t>Elec2020-RX-Iligan City-001</t>
         </is>
       </c>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="n">
         <v>0</v>
       </c>
@@ -21193,14 +19763,12 @@
       <c r="AK149" t="n">
         <v>0</v>
       </c>
-      <c r="AL149" t="inlineStr"/>
       <c r="AM149" t="n">
         <v>1</v>
       </c>
       <c r="AN149" t="n">
         <v>0</v>
       </c>
-      <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21252,12 +19820,9 @@
       <c r="H150" t="n">
         <v>1</v>
       </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
         <v>4936023.01</v>
       </c>
-      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -21266,21 +19831,11 @@
       <c r="N150" t="n">
         <v>0</v>
       </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr">
         <is>
           <t>Elec2020-RX-Iligan City-002</t>
         </is>
       </c>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="n">
         <v>1</v>
       </c>
@@ -21317,15 +19872,12 @@
       <c r="AK150" t="n">
         <v>0</v>
       </c>
-      <c r="AL150" t="inlineStr"/>
       <c r="AM150" t="n">
         <v>0</v>
       </c>
       <c r="AN150" t="n">
         <v>0</v>
       </c>
-      <c r="AO150" t="inlineStr"/>
-      <c r="AP150" t="inlineStr"/>
       <c r="AQ150" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -21372,12 +19924,9 @@
       <c r="H151" t="n">
         <v>1</v>
       </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
         <v>3433612.21</v>
       </c>
-      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21386,21 +19935,11 @@
       <c r="N151" t="n">
         <v>1</v>
       </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr">
         <is>
           <t>Elec2020-RX-Lanao del Norte-005</t>
         </is>
       </c>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="n">
         <v>0</v>
       </c>
@@ -21437,14 +19976,12 @@
       <c r="AK151" t="n">
         <v>0</v>
       </c>
-      <c r="AL151" t="inlineStr"/>
       <c r="AM151" t="n">
         <v>1</v>
       </c>
       <c r="AN151" t="n">
         <v>0</v>
       </c>
-      <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21496,12 +20033,9 @@
       <c r="H152" t="n">
         <v>1</v>
       </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
         <v>2706081.19</v>
       </c>
-      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21510,21 +20044,11 @@
       <c r="N152" t="n">
         <v>1</v>
       </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
           <t>Elec2020-RX-Lanao del Norte-007</t>
         </is>
       </c>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="n">
         <v>0</v>
       </c>
@@ -21561,14 +20085,12 @@
       <c r="AK152" t="n">
         <v>0</v>
       </c>
-      <c r="AL152" t="inlineStr"/>
       <c r="AM152" t="n">
         <v>1</v>
       </c>
       <c r="AN152" t="n">
         <v>0</v>
       </c>
-      <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21625,11 +20147,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
         <v>2443266.05</v>
       </c>
-      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21638,21 +20158,11 @@
       <c r="N153" t="n">
         <v>1</v>
       </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr">
         <is>
           <t>Elec2020-RX-Lanao del Norte-004</t>
         </is>
       </c>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
-      <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="n">
         <v>0</v>
       </c>
@@ -21689,14 +20199,12 @@
       <c r="AK153" t="n">
         <v>0</v>
       </c>
-      <c r="AL153" t="inlineStr"/>
       <c r="AM153" t="n">
         <v>1</v>
       </c>
       <c r="AN153" t="n">
         <v>0</v>
       </c>
-      <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21748,12 +20256,9 @@
       <c r="H154" t="n">
         <v>1</v>
       </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
         <v>3201586.1</v>
       </c>
-      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21762,21 +20267,11 @@
       <c r="N154" t="n">
         <v>1</v>
       </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr">
         <is>
           <t>Elec2020-RX-Lanao del Norte-008</t>
         </is>
       </c>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="n">
         <v>0</v>
       </c>
@@ -21813,14 +20308,12 @@
       <c r="AK154" t="n">
         <v>0</v>
       </c>
-      <c r="AL154" t="inlineStr"/>
       <c r="AM154" t="n">
         <v>1</v>
       </c>
       <c r="AN154" t="n">
         <v>0</v>
       </c>
-      <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21877,11 +20370,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
         <v>3489637.43</v>
       </c>
-      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21890,21 +20381,11 @@
       <c r="N155" t="n">
         <v>1</v>
       </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr">
         <is>
           <t>Elec2020-RX-Malaybalay City-001</t>
         </is>
       </c>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="n">
         <v>0</v>
       </c>
@@ -21941,14 +20422,12 @@
       <c r="AK155" t="n">
         <v>0</v>
       </c>
-      <c r="AL155" t="inlineStr"/>
       <c r="AM155" t="n">
         <v>1</v>
       </c>
       <c r="AN155" t="n">
         <v>0</v>
       </c>
-      <c r="AO155" t="inlineStr"/>
       <c r="AP155" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22005,11 +20484,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
         <v>2838644.05</v>
       </c>
-      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22018,21 +20495,11 @@
       <c r="N156" t="n">
         <v>1</v>
       </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr">
         <is>
           <t>Elec2020-RX-Malaybalay City-003</t>
         </is>
       </c>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="n">
         <v>0</v>
       </c>
@@ -22069,14 +20536,12 @@
       <c r="AK156" t="n">
         <v>0</v>
       </c>
-      <c r="AL156" t="inlineStr"/>
       <c r="AM156" t="n">
         <v>1</v>
       </c>
       <c r="AN156" t="n">
         <v>0</v>
       </c>
-      <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22133,11 +20598,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
         <v>2443792.12</v>
       </c>
-      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22151,19 +20614,11 @@
           <t>September 30, 2022</t>
         </is>
       </c>
-      <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
           <t>Elec2020-RX-Malaybalay City-005</t>
         </is>
       </c>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr">
         <is>
           <t>Complete installation onsite, FOR ENERGIZATION, with reinstallation issue due to error of BUSECO contractor, complied unlisted for BOM of BUSECO lacking materials by contractor. ready for submission of turn-on application</t>
@@ -22205,14 +20660,12 @@
       <c r="AK157" t="n">
         <v>0</v>
       </c>
-      <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="n">
         <v>1</v>
       </c>
       <c r="AN157" t="n">
         <v>0</v>
       </c>
-      <c r="AO157" t="inlineStr"/>
       <c r="AP157" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22269,7 +20722,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
         <v>4458236.13</v>
       </c>
@@ -22284,21 +20736,15 @@
       <c r="N158" t="n">
         <v>1</v>
       </c>
-      <c r="O158" s="2" t="n">
+      <c r="O158" s="3" t="n">
         <v>44869</v>
       </c>
-      <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr">
         <is>
           <t>Elec2020-RX-Misamis Occidental-002</t>
         </is>
       </c>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" s="2" t="n">
+      <c r="W158" s="3" t="n">
         <v>44179</v>
       </c>
       <c r="X158" t="inlineStr">
@@ -22347,14 +20793,12 @@
       <c r="AK158" t="n">
         <v>0</v>
       </c>
-      <c r="AL158" t="inlineStr"/>
       <c r="AM158" t="n">
         <v>1</v>
       </c>
       <c r="AN158" t="n">
         <v>0</v>
       </c>
-      <c r="AO158" t="inlineStr"/>
       <c r="AP158" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22411,7 +20855,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
         <v>4464139.66</v>
       </c>
@@ -22431,7 +20874,7 @@
           <t>September 30, 2022</t>
         </is>
       </c>
-      <c r="P159" s="2" t="n">
+      <c r="P159" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Q159" t="inlineStr">
@@ -22439,12 +20882,7 @@
           <t>Elec2020-RX-Misamis Occidental-001</t>
         </is>
       </c>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" s="2" t="n">
+      <c r="W159" s="3" t="n">
         <v>44419</v>
       </c>
       <c r="X159" t="inlineStr">
@@ -22493,14 +20931,12 @@
       <c r="AK159" t="n">
         <v>0</v>
       </c>
-      <c r="AL159" t="inlineStr"/>
       <c r="AM159" t="n">
         <v>1</v>
       </c>
       <c r="AN159" t="n">
         <v>0</v>
       </c>
-      <c r="AO159" t="inlineStr"/>
       <c r="AP159" t="n">
         <v>10.22</v>
       </c>
@@ -22555,7 +20991,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
         <v>5357548.51</v>
       </c>
@@ -22577,14 +21012,11 @@
           <t>December 28, 2020</t>
         </is>
       </c>
-      <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr">
         <is>
           <t>Elec2020-RX-Misamis Oriental-002</t>
         </is>
       </c>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr">
         <is>
           <t>January 24,2020</t>
@@ -22605,8 +21037,6 @@
           <t>March 2, 2020</t>
         </is>
       </c>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="n">
         <v>0</v>
       </c>
@@ -22643,14 +21073,12 @@
       <c r="AK160" t="n">
         <v>0</v>
       </c>
-      <c r="AL160" t="inlineStr"/>
       <c r="AM160" t="n">
         <v>1</v>
       </c>
       <c r="AN160" t="n">
         <v>0</v>
       </c>
-      <c r="AO160" t="inlineStr"/>
       <c r="AP160" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22707,7 +21135,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
         <v>5234970.56</v>
       </c>
@@ -22729,10 +21156,6 @@
           <t>December 28, 2020</t>
         </is>
       </c>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr">
         <is>
           <t>January 24,2020</t>
@@ -22753,8 +21176,6 @@
           <t>March 2, 2020</t>
         </is>
       </c>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="n">
         <v>0</v>
       </c>
@@ -22791,14 +21212,12 @@
       <c r="AK161" t="n">
         <v>0</v>
       </c>
-      <c r="AL161" t="inlineStr"/>
       <c r="AM161" t="n">
         <v>1</v>
       </c>
       <c r="AN161" t="n">
         <v>0</v>
       </c>
-      <c r="AO161" t="inlineStr"/>
       <c r="AP161" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22855,7 +21274,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
         <v>5026839.59</v>
       </c>
@@ -22877,14 +21295,11 @@
           <t>December 28, 2020</t>
         </is>
       </c>
-      <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
           <t>Elec2020-RX-Misamis Oriental-004</t>
         </is>
       </c>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr">
         <is>
           <t>January 24,2020</t>
@@ -22905,8 +21320,6 @@
           <t>March 2, 2020</t>
         </is>
       </c>
-      <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="n">
         <v>0</v>
       </c>
@@ -22943,14 +21356,12 @@
       <c r="AK162" t="n">
         <v>0</v>
       </c>
-      <c r="AL162" t="inlineStr"/>
       <c r="AM162" t="n">
         <v>1</v>
       </c>
       <c r="AN162" t="n">
         <v>0</v>
       </c>
-      <c r="AO162" t="inlineStr"/>
       <c r="AP162" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23002,12 +21413,9 @@
       <c r="H163" t="n">
         <v>1</v>
       </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
         <v>5229319.62</v>
       </c>
-      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -23016,21 +21424,11 @@
       <c r="N163" t="n">
         <v>0</v>
       </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr">
         <is>
           <t>Elec2020-RX-Misamis Oriental-008</t>
         </is>
       </c>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="n">
         <v>1</v>
       </c>
@@ -23067,15 +21465,12 @@
       <c r="AK163" t="n">
         <v>0</v>
       </c>
-      <c r="AL163" t="inlineStr"/>
       <c r="AM163" t="n">
         <v>0</v>
       </c>
       <c r="AN163" t="n">
         <v>0</v>
       </c>
-      <c r="AO163" t="inlineStr"/>
-      <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -23127,11 +21522,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
         <v>4233597.89</v>
       </c>
-      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23140,21 +21533,11 @@
       <c r="N164" t="n">
         <v>1</v>
       </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr">
         <is>
           <t>Elec2020-RX-Ozamis City-001</t>
         </is>
       </c>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="n">
         <v>0</v>
       </c>
@@ -23191,14 +21574,12 @@
       <c r="AK164" t="n">
         <v>0</v>
       </c>
-      <c r="AL164" t="inlineStr"/>
       <c r="AM164" t="n">
         <v>1</v>
       </c>
       <c r="AN164" t="n">
         <v>0</v>
       </c>
-      <c r="AO164" t="inlineStr"/>
       <c r="AP164" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23255,7 +21636,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
         <v>4472059.05</v>
       </c>
@@ -23272,7 +21652,7 @@
       <c r="N165" t="n">
         <v>1</v>
       </c>
-      <c r="O165" s="2" t="n">
+      <c r="O165" s="3" t="n">
         <v>44483</v>
       </c>
       <c r="P165" t="inlineStr">
@@ -23295,22 +21675,21 @@
           <t>092-INFRA2021-001</t>
         </is>
       </c>
-      <c r="T165" s="2" t="n">
+      <c r="T165" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="U165" s="2" t="n">
+      <c r="U165" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="V165" s="2" t="n">
+      <c r="V165" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="W165" s="2" t="n">
+      <c r="W165" s="3" t="n">
         <v>44337</v>
       </c>
       <c r="X165" t="n">
         <v>44357</v>
       </c>
-      <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="n">
         <v>0</v>
       </c>
@@ -23347,14 +21726,12 @@
       <c r="AK165" t="n">
         <v>0</v>
       </c>
-      <c r="AL165" t="inlineStr"/>
       <c r="AM165" t="n">
         <v>1</v>
       </c>
       <c r="AN165" t="n">
         <v>0</v>
       </c>
-      <c r="AO165" t="inlineStr"/>
       <c r="AP165" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23411,11 +21788,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
         <v>3847284.76</v>
       </c>
-      <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23424,21 +21799,11 @@
       <c r="N166" t="n">
         <v>1</v>
       </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr">
         <is>
           <t>Elec2020-RX-Ozamis City-003</t>
         </is>
       </c>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="n">
         <v>0</v>
       </c>
@@ -23475,14 +21840,12 @@
       <c r="AK166" t="n">
         <v>0</v>
       </c>
-      <c r="AL166" t="inlineStr"/>
       <c r="AM166" t="n">
         <v>1</v>
       </c>
       <c r="AN166" t="n">
         <v>0</v>
       </c>
-      <c r="AO166" t="inlineStr"/>
       <c r="AP166" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23539,7 +21902,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
         <v>3028449.97</v>
       </c>
@@ -23554,7 +21916,6 @@
       <c r="N167" t="n">
         <v>1</v>
       </c>
-      <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
           <t>2/15/2021</t>
@@ -23565,20 +21926,19 @@
           <t>Elec2019-RX-Tangub City-001</t>
         </is>
       </c>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" s="2" t="n">
+      <c r="S167" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="T167" s="2" t="n">
+      <c r="T167" s="3" t="n">
         <v>43854</v>
       </c>
-      <c r="U167" s="2" t="n">
+      <c r="U167" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="V167" s="2" t="n">
+      <c r="V167" s="3" t="n">
         <v>43994</v>
       </c>
-      <c r="W167" s="2" t="n">
+      <c r="W167" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="X167" t="inlineStr">
@@ -23586,7 +21946,6 @@
           <t>DBB Industrial Services</t>
         </is>
       </c>
-      <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="n">
         <v>0</v>
       </c>
@@ -23634,7 +21993,6 @@
       <c r="AN167" t="n">
         <v>0</v>
       </c>
-      <c r="AO167" t="inlineStr"/>
       <c r="AP167" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23691,7 +22049,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
         <v>1891404.49</v>
       </c>
@@ -23706,7 +22063,6 @@
       <c r="N168" t="n">
         <v>1</v>
       </c>
-      <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
           <t>2/15/2021</t>
@@ -23717,20 +22073,19 @@
           <t>Elec2020-RX-Tangub City-005</t>
         </is>
       </c>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" s="2" t="n">
+      <c r="S168" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="T168" s="2" t="n">
+      <c r="T168" s="3" t="n">
         <v>43854</v>
       </c>
-      <c r="U168" s="2" t="n">
+      <c r="U168" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="V168" s="2" t="n">
+      <c r="V168" s="3" t="n">
         <v>43994</v>
       </c>
-      <c r="W168" s="2" t="n">
+      <c r="W168" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="X168" t="inlineStr">
@@ -23738,7 +22093,6 @@
           <t>DBB Industrial Services</t>
         </is>
       </c>
-      <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="n">
         <v>0</v>
       </c>
@@ -23786,7 +22140,6 @@
       <c r="AN168" t="n">
         <v>0</v>
       </c>
-      <c r="AO168" t="inlineStr"/>
       <c r="AP168" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23843,11 +22196,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
         <v>3888115.7</v>
       </c>
-      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23861,7 +22212,7 @@
           <t>April 2, 2020</t>
         </is>
       </c>
-      <c r="P169" s="2" t="n">
+      <c r="P169" s="3" t="n">
         <v>44261</v>
       </c>
       <c r="Q169" t="inlineStr">
@@ -23869,24 +22220,21 @@
           <t>Elec2020-RX-Tangub City-003</t>
         </is>
       </c>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
-      <c r="T169" s="2" t="n">
+      <c r="T169" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="U169" s="2" t="n">
+      <c r="U169" s="3" t="n">
         <v>43854</v>
       </c>
-      <c r="V169" s="2" t="n">
+      <c r="V169" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="W169" s="2" t="n">
+      <c r="W169" s="3" t="n">
         <v>43994</v>
       </c>
       <c r="X169" t="n">
         <v>44166</v>
       </c>
-      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="n">
         <v>0</v>
       </c>
@@ -23934,7 +22282,6 @@
       <c r="AN169" t="n">
         <v>0</v>
       </c>
-      <c r="AO169" t="inlineStr"/>
       <c r="AP169" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23991,7 +22338,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
         <v>4006045.9</v>
       </c>
@@ -24013,7 +22359,7 @@
           <t>December 1, 2020</t>
         </is>
       </c>
-      <c r="P170" s="2" t="n">
+      <c r="P170" s="3" t="n">
         <v>44261</v>
       </c>
       <c r="Q170" t="inlineStr">
@@ -24021,24 +22367,21 @@
           <t>Elec2020-RX-Tangub City-004</t>
         </is>
       </c>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" s="2" t="n">
+      <c r="T170" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="U170" s="2" t="n">
+      <c r="U170" s="3" t="n">
         <v>43854</v>
       </c>
-      <c r="V170" s="2" t="n">
+      <c r="V170" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="W170" s="2" t="n">
+      <c r="W170" s="3" t="n">
         <v>43994</v>
       </c>
       <c r="X170" t="n">
         <v>44111</v>
       </c>
-      <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="n">
         <v>0</v>
       </c>
@@ -24086,7 +22429,6 @@
       <c r="AN170" t="n">
         <v>0</v>
       </c>
-      <c r="AO170" t="inlineStr"/>
       <c r="AP170" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24119,7 +22461,6 @@
           <t>Valencia City</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
           <t>Bagontaas NHS</t>
@@ -24141,7 +22482,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
         <v>2581100.71</v>
       </c>
@@ -24161,13 +22501,11 @@
           <t>October 31, 2022</t>
         </is>
       </c>
-      <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr">
         <is>
           <t>Elec2020-RX-Valencia City-001</t>
         </is>
       </c>
-      <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr">
         <is>
           <t>April 19, 2021</t>
@@ -24188,7 +22526,7 @@
           <t>May 12, 2021</t>
         </is>
       </c>
-      <c r="W171" s="2" t="n">
+      <c r="W171" s="3" t="n">
         <v>44330</v>
       </c>
       <c r="X171" t="inlineStr">
@@ -24237,14 +22575,12 @@
       <c r="AK171" t="n">
         <v>0</v>
       </c>
-      <c r="AL171" t="inlineStr"/>
       <c r="AM171" t="n">
         <v>1</v>
       </c>
       <c r="AN171" t="n">
         <v>0</v>
       </c>
-      <c r="AO171" t="inlineStr"/>
       <c r="AP171" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24301,7 +22637,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
         <v>2533608.48</v>
       </c>
@@ -24323,7 +22658,6 @@
           <t>April 6, 2021</t>
         </is>
       </c>
-      <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
           <t>Elec2020-RX-Valencia City-002</t>
@@ -24339,22 +22673,21 @@
           <t>02-2020</t>
         </is>
       </c>
-      <c r="T172" s="2" t="n">
+      <c r="T172" s="3" t="n">
         <v>44062</v>
       </c>
-      <c r="U172" s="2" t="n">
+      <c r="U172" s="3" t="n">
         <v>44068</v>
       </c>
-      <c r="V172" s="2" t="n">
+      <c r="V172" s="3" t="n">
         <v>44085</v>
       </c>
-      <c r="W172" s="2" t="n">
+      <c r="W172" s="3" t="n">
         <v>44125</v>
       </c>
       <c r="X172" t="n">
         <v>44165</v>
       </c>
-      <c r="Y172" t="inlineStr"/>
       <c r="Z172" t="n">
         <v>0</v>
       </c>
@@ -24391,14 +22724,12 @@
       <c r="AK172" t="n">
         <v>0</v>
       </c>
-      <c r="AL172" t="inlineStr"/>
       <c r="AM172" t="n">
         <v>1</v>
       </c>
       <c r="AN172" t="n">
         <v>0</v>
       </c>
-      <c r="AO172" t="inlineStr"/>
       <c r="AP172" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24455,7 +22786,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
         <v>3240736.13</v>
       </c>
@@ -24477,7 +22807,6 @@
           <t>April 6, 2021</t>
         </is>
       </c>
-      <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr">
         <is>
           <t>Elec2020-RX-Valencia City-008</t>
@@ -24493,22 +22822,21 @@
           <t>02-2020</t>
         </is>
       </c>
-      <c r="T173" s="2" t="n">
+      <c r="T173" s="3" t="n">
         <v>44062</v>
       </c>
-      <c r="U173" s="2" t="n">
+      <c r="U173" s="3" t="n">
         <v>44068</v>
       </c>
-      <c r="V173" s="2" t="n">
+      <c r="V173" s="3" t="n">
         <v>44085</v>
       </c>
-      <c r="W173" s="2" t="n">
+      <c r="W173" s="3" t="n">
         <v>44125</v>
       </c>
       <c r="X173" t="n">
         <v>44165</v>
       </c>
-      <c r="Y173" t="inlineStr"/>
       <c r="Z173" t="n">
         <v>0</v>
       </c>
@@ -24545,14 +22873,12 @@
       <c r="AK173" t="n">
         <v>0</v>
       </c>
-      <c r="AL173" t="inlineStr"/>
       <c r="AM173" t="n">
         <v>1</v>
       </c>
       <c r="AN173" t="n">
         <v>0</v>
       </c>
-      <c r="AO173" t="inlineStr"/>
       <c r="AP173" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24609,7 +22935,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
         <v>2574141.98</v>
       </c>
@@ -24631,7 +22956,6 @@
           <t>April 6, 2021</t>
         </is>
       </c>
-      <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr">
         <is>
           <t>Elec2020-RX-Valencia City-003</t>
@@ -24647,22 +22971,21 @@
           <t>02-2020</t>
         </is>
       </c>
-      <c r="T174" s="2" t="n">
+      <c r="T174" s="3" t="n">
         <v>44062</v>
       </c>
-      <c r="U174" s="2" t="n">
+      <c r="U174" s="3" t="n">
         <v>44068</v>
       </c>
-      <c r="V174" s="2" t="n">
+      <c r="V174" s="3" t="n">
         <v>44085</v>
       </c>
-      <c r="W174" s="2" t="n">
+      <c r="W174" s="3" t="n">
         <v>44125</v>
       </c>
       <c r="X174" t="n">
         <v>44165</v>
       </c>
-      <c r="Y174" t="inlineStr"/>
       <c r="Z174" t="n">
         <v>0</v>
       </c>
@@ -24699,14 +23022,12 @@
       <c r="AK174" t="n">
         <v>0</v>
       </c>
-      <c r="AL174" t="inlineStr"/>
       <c r="AM174" t="n">
         <v>1</v>
       </c>
       <c r="AN174" t="n">
         <v>0</v>
       </c>
-      <c r="AO174" t="inlineStr"/>
       <c r="AP174" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24782,21 +23103,11 @@
       <c r="N175" t="n">
         <v>1</v>
       </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
-      <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr">
         <is>
           <t>Elettro Engineering Enterprises</t>
         </is>
       </c>
-      <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="n">
         <v>0</v>
       </c>
@@ -24833,14 +23144,12 @@
       <c r="AK175" t="n">
         <v>0</v>
       </c>
-      <c r="AL175" t="inlineStr"/>
       <c r="AM175" t="n">
         <v>1</v>
       </c>
       <c r="AN175" t="n">
         <v>0</v>
       </c>
-      <c r="AO175" t="inlineStr"/>
       <c r="AP175" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24916,10 +23225,9 @@
       <c r="N176" t="n">
         <v>1</v>
       </c>
-      <c r="O176" s="2" t="n">
+      <c r="O176" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr">
         <is>
           <t>ELEC 2023-REGION X-MISAMIS OCCIDENTAL-001</t>
@@ -24930,19 +23238,19 @@
           <t>009-2023</t>
         </is>
       </c>
-      <c r="S176" s="2" t="n">
+      <c r="S176" s="3" t="n">
         <v>45066</v>
       </c>
-      <c r="T176" s="2" t="n">
+      <c r="T176" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="U176" s="2" t="n">
+      <c r="U176" s="3" t="n">
         <v>45090</v>
       </c>
-      <c r="V176" s="2" t="n">
+      <c r="V176" s="3" t="n">
         <v>45146</v>
       </c>
-      <c r="W176" s="2" t="n">
+      <c r="W176" s="3" t="n">
         <v>45181</v>
       </c>
       <c r="X176" t="inlineStr">
@@ -24991,14 +23299,12 @@
       <c r="AK176" t="n">
         <v>0</v>
       </c>
-      <c r="AL176" t="inlineStr"/>
       <c r="AM176" t="n">
         <v>1</v>
       </c>
       <c r="AN176" t="n">
         <v>0</v>
       </c>
-      <c r="AO176" t="inlineStr"/>
       <c r="AP176" t="n">
         <v>5.24</v>
       </c>
@@ -25072,10 +23378,9 @@
       <c r="N177" t="n">
         <v>1</v>
       </c>
-      <c r="O177" s="2" t="n">
+      <c r="O177" s="3" t="n">
         <v>45424</v>
       </c>
-      <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr">
         <is>
           <t>G2PB - Electrification-2023-001</t>
@@ -25084,19 +23389,19 @@
       <c r="R177" t="n">
         <v>4610718</v>
       </c>
-      <c r="S177" s="2" t="n">
+      <c r="S177" s="3" t="n">
         <v>45235</v>
       </c>
-      <c r="T177" s="2" t="n">
+      <c r="T177" s="3" t="n">
         <v>45250</v>
       </c>
-      <c r="U177" s="2" t="n">
+      <c r="U177" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="V177" s="2" t="n">
+      <c r="V177" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="W177" s="2" t="n">
+      <c r="W177" s="3" t="n">
         <v>45309</v>
       </c>
       <c r="X177" t="inlineStr">
@@ -25145,14 +23450,12 @@
       <c r="AK177" t="n">
         <v>0</v>
       </c>
-      <c r="AL177" t="inlineStr"/>
       <c r="AM177" t="n">
         <v>1</v>
       </c>
       <c r="AN177" t="n">
         <v>0</v>
       </c>
-      <c r="AO177" t="inlineStr"/>
       <c r="AP177" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25228,7 +23531,7 @@
       <c r="N178" t="n">
         <v>0.85</v>
       </c>
-      <c r="O178" s="2" t="n">
+      <c r="O178" s="3" t="n">
         <v>45649</v>
       </c>
       <c r="P178" t="inlineStr">
@@ -25256,13 +23559,13 @@
           <t>Negotiated Procurement due to 2 failed bidding</t>
         </is>
       </c>
-      <c r="U178" s="2" t="n">
+      <c r="U178" s="3" t="n">
         <v>45366</v>
       </c>
-      <c r="V178" s="2" t="n">
+      <c r="V178" s="3" t="n">
         <v>45394</v>
       </c>
-      <c r="W178" s="2" t="n">
+      <c r="W178" s="3" t="n">
         <v>45469</v>
       </c>
       <c r="X178" t="inlineStr">
@@ -25311,15 +23614,12 @@
       <c r="AK178" t="n">
         <v>0</v>
       </c>
-      <c r="AL178" t="inlineStr"/>
       <c r="AM178" t="n">
         <v>0.85</v>
       </c>
       <c r="AN178" t="n">
         <v>0</v>
       </c>
-      <c r="AO178" t="inlineStr"/>
-      <c r="AP178" t="inlineStr"/>
       <c r="AQ178" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -25390,7 +23690,7 @@
       <c r="N179" t="n">
         <v>0.95</v>
       </c>
-      <c r="O179" s="2" t="n">
+      <c r="O179" s="3" t="n">
         <v>45899</v>
       </c>
       <c r="P179" t="inlineStr">
@@ -25408,19 +23708,19 @@
           <t>013-2024</t>
         </is>
       </c>
-      <c r="S179" s="2" t="n">
+      <c r="S179" s="3" t="n">
         <v>45256</v>
       </c>
-      <c r="T179" s="2" t="n">
+      <c r="T179" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="U179" s="2" t="n">
+      <c r="U179" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="V179" s="2" t="n">
+      <c r="V179" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="W179" s="2" t="n">
+      <c r="W179" s="3" t="n">
         <v>45441</v>
       </c>
       <c r="X179" t="inlineStr">
@@ -25469,15 +23769,12 @@
       <c r="AK179" t="n">
         <v>0</v>
       </c>
-      <c r="AL179" t="inlineStr"/>
       <c r="AM179" t="n">
         <v>0.9</v>
       </c>
       <c r="AN179" t="n">
         <v>0.04999999999999993</v>
       </c>
-      <c r="AO179" t="inlineStr"/>
-      <c r="AP179" t="inlineStr"/>
       <c r="AQ179" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -25548,7 +23845,7 @@
       <c r="N180" t="n">
         <v>0.92</v>
       </c>
-      <c r="O180" s="2" t="n">
+      <c r="O180" s="3" t="n">
         <v>45838</v>
       </c>
       <c r="P180" t="inlineStr">
@@ -25566,19 +23863,19 @@
           <t>014-2024</t>
         </is>
       </c>
-      <c r="S180" s="2" t="n">
+      <c r="S180" s="3" t="n">
         <v>45256</v>
       </c>
-      <c r="T180" s="2" t="n">
+      <c r="T180" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="U180" s="2" t="n">
+      <c r="U180" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="V180" s="2" t="n">
+      <c r="V180" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="W180" s="2" t="n">
+      <c r="W180" s="3" t="n">
         <v>45441</v>
       </c>
       <c r="X180" t="inlineStr">
@@ -25627,15 +23924,12 @@
       <c r="AK180" t="n">
         <v>0</v>
       </c>
-      <c r="AL180" t="inlineStr"/>
       <c r="AM180" t="n">
         <v>0.85</v>
       </c>
       <c r="AN180" t="n">
         <v>0.07000000000000006</v>
       </c>
-      <c r="AO180" t="inlineStr"/>
-      <c r="AP180" t="inlineStr"/>
       <c r="AQ180" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -25706,7 +24000,7 @@
       <c r="N181" t="n">
         <v>1</v>
       </c>
-      <c r="O181" s="2" t="n">
+      <c r="O181" s="3" t="n">
         <v>45543</v>
       </c>
       <c r="P181" t="inlineStr">
@@ -25724,19 +24018,19 @@
           <t>2024-009</t>
         </is>
       </c>
-      <c r="S181" s="2" t="n">
+      <c r="S181" s="3" t="n">
         <v>45246</v>
       </c>
-      <c r="T181" s="2" t="n">
+      <c r="T181" s="3" t="n">
         <v>45624</v>
       </c>
-      <c r="U181" s="2" t="n">
+      <c r="U181" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="V181" s="2" t="n">
+      <c r="V181" s="3" t="n">
         <v>45288</v>
       </c>
-      <c r="W181" s="2" t="n">
+      <c r="W181" s="3" t="n">
         <v>45449</v>
       </c>
       <c r="X181" t="inlineStr">
@@ -25785,14 +24079,12 @@
       <c r="AK181" t="n">
         <v>0</v>
       </c>
-      <c r="AL181" t="inlineStr"/>
       <c r="AM181" t="n">
         <v>1</v>
       </c>
       <c r="AN181" t="n">
         <v>0</v>
       </c>
-      <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="n">
         <v>10.24</v>
       </c>
@@ -25866,7 +24158,7 @@
       <c r="N182" t="n">
         <v>1</v>
       </c>
-      <c r="O182" s="2" t="n">
+      <c r="O182" s="3" t="n">
         <v>45543</v>
       </c>
       <c r="P182" t="inlineStr">
@@ -25884,19 +24176,19 @@
           <t>2024-008</t>
         </is>
       </c>
-      <c r="S182" s="2" t="n">
+      <c r="S182" s="3" t="n">
         <v>45246</v>
       </c>
-      <c r="T182" s="2" t="n">
+      <c r="T182" s="3" t="n">
         <v>45624</v>
       </c>
-      <c r="U182" s="2" t="n">
+      <c r="U182" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="V182" s="2" t="n">
+      <c r="V182" s="3" t="n">
         <v>45288</v>
       </c>
-      <c r="W182" s="2" t="n">
+      <c r="W182" s="3" t="n">
         <v>45449</v>
       </c>
       <c r="X182" t="inlineStr">
@@ -25945,14 +24237,12 @@
       <c r="AK182" t="n">
         <v>0</v>
       </c>
-      <c r="AL182" t="inlineStr"/>
       <c r="AM182" t="n">
         <v>1</v>
       </c>
       <c r="AN182" t="n">
         <v>0</v>
       </c>
-      <c r="AO182" t="inlineStr"/>
       <c r="AP182" t="n">
         <v>10.24</v>
       </c>
@@ -26026,10 +24316,10 @@
       <c r="N183" t="n">
         <v>1</v>
       </c>
-      <c r="O183" s="2" t="n">
+      <c r="O183" s="3" t="n">
         <v>45561</v>
       </c>
-      <c r="P183" s="2" t="n">
+      <c r="P183" s="3" t="n">
         <v>45585</v>
       </c>
       <c r="Q183" t="inlineStr">
@@ -26042,19 +24332,19 @@
           <t>Infra-01-02-2024</t>
         </is>
       </c>
-      <c r="S183" s="2" t="n">
+      <c r="S183" s="3" t="n">
         <v>45254</v>
       </c>
-      <c r="T183" s="2" t="n">
+      <c r="T183" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="U183" s="2" t="n">
+      <c r="U183" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="V183" s="2" t="n">
+      <c r="V183" s="3" t="n">
         <v>45315</v>
       </c>
-      <c r="W183" s="2" t="n">
+      <c r="W183" s="3" t="n">
         <v>45441</v>
       </c>
       <c r="X183" t="inlineStr">
@@ -26103,14 +24393,12 @@
       <c r="AK183" t="n">
         <v>0</v>
       </c>
-      <c r="AL183" t="inlineStr"/>
       <c r="AM183" t="n">
         <v>1</v>
       </c>
       <c r="AN183" t="n">
         <v>0</v>
       </c>
-      <c r="AO183" t="inlineStr"/>
       <c r="AP183" t="n">
         <v>10.24</v>
       </c>
@@ -26184,10 +24472,10 @@
       <c r="N184" t="n">
         <v>1</v>
       </c>
-      <c r="O184" s="2" t="n">
+      <c r="O184" s="3" t="n">
         <v>45580</v>
       </c>
-      <c r="P184" s="2" t="n">
+      <c r="P184" s="3" t="n">
         <v>45589</v>
       </c>
       <c r="Q184" t="inlineStr">
@@ -26200,19 +24488,19 @@
           <t>2024-02-0001</t>
         </is>
       </c>
-      <c r="S184" s="2" t="n">
+      <c r="S184" s="3" t="n">
         <v>45295</v>
       </c>
-      <c r="T184" s="2" t="n">
+      <c r="T184" s="3" t="n">
         <v>45314</v>
       </c>
-      <c r="U184" s="2" t="n">
+      <c r="U184" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="V184" s="2" t="n">
+      <c r="V184" s="3" t="n">
         <v>45421</v>
       </c>
-      <c r="W184" s="2" t="n">
+      <c r="W184" s="3" t="n">
         <v>45435</v>
       </c>
       <c r="X184" t="inlineStr">
@@ -26261,14 +24549,12 @@
       <c r="AK184" t="n">
         <v>0</v>
       </c>
-      <c r="AL184" t="inlineStr"/>
       <c r="AM184" t="n">
         <v>1</v>
       </c>
       <c r="AN184" t="n">
         <v>0</v>
       </c>
-      <c r="AO184" t="inlineStr"/>
       <c r="AP184" t="n">
         <v>10.24</v>
       </c>
@@ -26342,7 +24628,7 @@
       <c r="N185" t="n">
         <v>1</v>
       </c>
-      <c r="O185" s="2" t="n">
+      <c r="O185" s="3" t="n">
         <v>45607</v>
       </c>
       <c r="P185" t="inlineStr">
@@ -26361,19 +24647,19 @@
           <t>BEFF-2024-Anahaw ES</t>
         </is>
       </c>
-      <c r="S185" s="2" t="n">
+      <c r="S185" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="T185" s="2" t="n">
+      <c r="T185" s="3" t="n">
         <v>45240</v>
       </c>
-      <c r="U185" s="2" t="n">
+      <c r="U185" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="V185" s="2" t="n">
+      <c r="V185" s="3" t="n">
         <v>45433</v>
       </c>
-      <c r="W185" s="2" t="n">
+      <c r="W185" s="3" t="n">
         <v>45450</v>
       </c>
       <c r="X185" t="inlineStr">
@@ -26422,14 +24708,12 @@
       <c r="AK185" t="n">
         <v>0</v>
       </c>
-      <c r="AL185" t="inlineStr"/>
       <c r="AM185" t="n">
         <v>1</v>
       </c>
       <c r="AN185" t="n">
         <v>0</v>
       </c>
-      <c r="AO185" t="inlineStr"/>
       <c r="AP185" t="n">
         <v>4.25</v>
       </c>
@@ -26503,7 +24787,7 @@
       <c r="N186" t="n">
         <v>1</v>
       </c>
-      <c r="O186" s="2" t="n">
+      <c r="O186" s="3" t="n">
         <v>45587</v>
       </c>
       <c r="P186" t="inlineStr">
@@ -26521,19 +24805,19 @@
           <t>INFRA-2023-11-02</t>
         </is>
       </c>
-      <c r="S186" s="2" t="n">
+      <c r="S186" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="T186" s="2" t="n">
+      <c r="T186" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="U186" s="2" t="n">
+      <c r="U186" s="3" t="n">
         <v>45341</v>
       </c>
-      <c r="V186" s="2" t="n">
+      <c r="V186" s="3" t="n">
         <v>45355</v>
       </c>
-      <c r="W186" s="2" t="n">
+      <c r="W186" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="X186" t="inlineStr">
@@ -26582,14 +24866,12 @@
       <c r="AK186" t="n">
         <v>0</v>
       </c>
-      <c r="AL186" t="inlineStr"/>
       <c r="AM186" t="n">
         <v>1</v>
       </c>
       <c r="AN186" t="n">
         <v>0</v>
       </c>
-      <c r="AO186" t="inlineStr"/>
       <c r="AP186" t="n">
         <v>11.24</v>
       </c>
@@ -26663,10 +24945,10 @@
       <c r="N187" t="n">
         <v>1</v>
       </c>
-      <c r="O187" s="2" t="n">
+      <c r="O187" s="3" t="n">
         <v>45658</v>
       </c>
-      <c r="P187" s="2" t="n">
+      <c r="P187" s="3" t="n">
         <v>45807</v>
       </c>
       <c r="Q187" t="inlineStr">
@@ -26679,19 +24961,19 @@
           <t>2024-03(Infra)</t>
         </is>
       </c>
-      <c r="S187" s="2" t="n">
+      <c r="S187" s="3" t="n">
         <v>45412</v>
       </c>
-      <c r="T187" s="2" t="n">
+      <c r="T187" s="3" t="n">
         <v>45422</v>
       </c>
-      <c r="U187" s="2" t="n">
+      <c r="U187" s="3" t="n">
         <v>45436</v>
       </c>
-      <c r="V187" s="2" t="n">
+      <c r="V187" s="3" t="n">
         <v>45453</v>
       </c>
-      <c r="W187" s="2" t="n">
+      <c r="W187" s="3" t="n">
         <v>45519</v>
       </c>
       <c r="X187" t="inlineStr">
@@ -26740,14 +25022,12 @@
       <c r="AK187" t="n">
         <v>0</v>
       </c>
-      <c r="AL187" t="inlineStr"/>
       <c r="AM187" t="n">
         <v>0.95</v>
       </c>
       <c r="AN187" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO187" t="inlineStr"/>
       <c r="AP187" t="n">
         <v>5.25</v>
       </c>
@@ -26821,7 +25101,7 @@
       <c r="N188" t="n">
         <v>0.95</v>
       </c>
-      <c r="O188" s="2" t="n">
+      <c r="O188" s="3" t="n">
         <v>45658</v>
       </c>
       <c r="P188" t="inlineStr">
@@ -26837,19 +25117,19 @@
       <c r="R188" t="n">
         <v>45353</v>
       </c>
-      <c r="S188" s="2" t="n">
+      <c r="S188" s="3" t="n">
         <v>45412</v>
       </c>
-      <c r="T188" s="2" t="n">
+      <c r="T188" s="3" t="n">
         <v>45422</v>
       </c>
-      <c r="U188" s="2" t="n">
+      <c r="U188" s="3" t="n">
         <v>45436</v>
       </c>
-      <c r="V188" s="2" t="n">
+      <c r="V188" s="3" t="n">
         <v>45453</v>
       </c>
-      <c r="W188" s="2" t="n">
+      <c r="W188" s="3" t="n">
         <v>45519</v>
       </c>
       <c r="X188" t="inlineStr">
@@ -26898,15 +25178,12 @@
       <c r="AK188" t="n">
         <v>0</v>
       </c>
-      <c r="AL188" t="inlineStr"/>
       <c r="AM188" t="n">
         <v>0.95</v>
       </c>
       <c r="AN188" t="n">
         <v>0</v>
       </c>
-      <c r="AO188" t="inlineStr"/>
-      <c r="AP188" t="inlineStr"/>
       <c r="AQ188" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -26977,7 +25254,7 @@
       <c r="N189" t="n">
         <v>0.9</v>
       </c>
-      <c r="O189" s="2" t="n">
+      <c r="O189" s="3" t="n">
         <v>45868</v>
       </c>
       <c r="P189" t="inlineStr">
@@ -26995,19 +25272,19 @@
           <t>002-INFRA-2023</t>
         </is>
       </c>
-      <c r="S189" s="2" t="n">
+      <c r="S189" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="T189" s="2" t="n">
+      <c r="T189" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="U189" s="2" t="n">
+      <c r="U189" s="3" t="n">
         <v>45279</v>
       </c>
-      <c r="V189" s="2" t="n">
+      <c r="V189" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="W189" s="2" t="n">
+      <c r="W189" s="3" t="n">
         <v>45505</v>
       </c>
       <c r="X189" t="inlineStr">
@@ -27056,15 +25333,12 @@
       <c r="AK189" t="n">
         <v>0</v>
       </c>
-      <c r="AL189" t="inlineStr"/>
       <c r="AM189" t="n">
         <v>0.85</v>
       </c>
       <c r="AN189" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO189" t="inlineStr"/>
-      <c r="AP189" t="inlineStr"/>
       <c r="AQ189" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -27135,7 +25409,7 @@
       <c r="N190" t="n">
         <v>0.95</v>
       </c>
-      <c r="O190" s="2" t="n">
+      <c r="O190" s="3" t="n">
         <v>45632</v>
       </c>
       <c r="P190" t="inlineStr">
@@ -27153,19 +25427,19 @@
           <t>012-2024</t>
         </is>
       </c>
-      <c r="S190" s="2" t="n">
+      <c r="S190" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="T190" s="2" t="n">
+      <c r="T190" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="U190" s="2" t="n">
+      <c r="U190" s="3" t="n">
         <v>45279</v>
       </c>
-      <c r="V190" s="2" t="n">
+      <c r="V190" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="W190" s="2" t="n">
+      <c r="W190" s="3" t="n">
         <v>45498</v>
       </c>
       <c r="X190" t="inlineStr">
@@ -27214,15 +25488,12 @@
       <c r="AK190" t="n">
         <v>0</v>
       </c>
-      <c r="AL190" t="inlineStr"/>
       <c r="AM190" t="n">
         <v>0.95</v>
       </c>
       <c r="AN190" t="n">
         <v>0</v>
       </c>
-      <c r="AO190" t="inlineStr"/>
-      <c r="AP190" t="inlineStr"/>
       <c r="AQ190" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -27293,7 +25564,7 @@
       <c r="N191" t="n">
         <v>1</v>
       </c>
-      <c r="O191" s="2" t="n">
+      <c r="O191" s="3" t="n">
         <v>45608</v>
       </c>
       <c r="P191" t="inlineStr">
@@ -27311,19 +25582,19 @@
           <t>008-2024</t>
         </is>
       </c>
-      <c r="S191" s="2" t="n">
+      <c r="S191" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="T191" s="2" t="n">
+      <c r="T191" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="U191" s="2" t="n">
+      <c r="U191" s="3" t="n">
         <v>45279</v>
       </c>
-      <c r="V191" s="2" t="n">
+      <c r="V191" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="W191" s="2" t="n">
+      <c r="W191" s="3" t="n">
         <v>45476</v>
       </c>
       <c r="X191" t="inlineStr">
@@ -27372,14 +25643,12 @@
       <c r="AK191" t="n">
         <v>0</v>
       </c>
-      <c r="AL191" t="inlineStr"/>
       <c r="AM191" t="n">
         <v>1</v>
       </c>
       <c r="AN191" t="n">
         <v>0</v>
       </c>
-      <c r="AO191" t="inlineStr"/>
       <c r="AP191" t="n">
         <v>11.24</v>
       </c>
@@ -27453,7 +25722,7 @@
       <c r="N192" t="n">
         <v>0.95</v>
       </c>
-      <c r="O192" s="2" t="n">
+      <c r="O192" s="3" t="n">
         <v>45605</v>
       </c>
       <c r="P192" t="inlineStr">
@@ -27466,20 +25735,19 @@
           <t>G2PB - Electrification-2024-001</t>
         </is>
       </c>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" s="2" t="n">
+      <c r="S192" s="3" t="n">
         <v>45362</v>
       </c>
-      <c r="T192" s="2" t="n">
+      <c r="T192" s="3" t="n">
         <v>45369</v>
       </c>
-      <c r="U192" s="2" t="n">
+      <c r="U192" s="3" t="n">
         <v>45383</v>
       </c>
-      <c r="V192" s="2" t="n">
+      <c r="V192" s="3" t="n">
         <v>45393</v>
       </c>
-      <c r="W192" s="2" t="n">
+      <c r="W192" s="3" t="n">
         <v>45478</v>
       </c>
       <c r="X192" t="inlineStr">
@@ -27528,15 +25796,12 @@
       <c r="AK192" t="n">
         <v>0</v>
       </c>
-      <c r="AL192" t="inlineStr"/>
       <c r="AM192" t="n">
         <v>0.95</v>
       </c>
       <c r="AN192" t="n">
         <v>0</v>
       </c>
-      <c r="AO192" t="inlineStr"/>
-      <c r="AP192" t="inlineStr"/>
       <c r="AQ192" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -27607,7 +25872,7 @@
       <c r="N193" t="n">
         <v>0.95</v>
       </c>
-      <c r="O193" s="2" t="n">
+      <c r="O193" s="3" t="n">
         <v>45605</v>
       </c>
       <c r="P193" t="inlineStr">
@@ -27620,20 +25885,19 @@
           <t>G2PB - Electrification-2024-002</t>
         </is>
       </c>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" s="2" t="n">
+      <c r="S193" s="3" t="n">
         <v>45362</v>
       </c>
-      <c r="T193" s="2" t="n">
+      <c r="T193" s="3" t="n">
         <v>45369</v>
       </c>
-      <c r="U193" s="2" t="n">
+      <c r="U193" s="3" t="n">
         <v>45383</v>
       </c>
-      <c r="V193" s="2" t="n">
+      <c r="V193" s="3" t="n">
         <v>45393</v>
       </c>
-      <c r="W193" s="2" t="n">
+      <c r="W193" s="3" t="n">
         <v>45478</v>
       </c>
       <c r="X193" t="inlineStr">
@@ -27682,15 +25946,12 @@
       <c r="AK193" t="n">
         <v>0</v>
       </c>
-      <c r="AL193" t="inlineStr"/>
       <c r="AM193" t="n">
         <v>0.95</v>
       </c>
       <c r="AN193" t="n">
         <v>0</v>
       </c>
-      <c r="AO193" t="inlineStr"/>
-      <c r="AP193" t="inlineStr"/>
       <c r="AQ193" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -27771,21 +26032,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" s="2" t="n">
+      <c r="S194" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="T194" s="2" t="n">
+      <c r="T194" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="U194" s="2" t="n">
+      <c r="U194" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="V194" s="2" t="n">
+      <c r="V194" s="3" t="n">
         <v>45422</v>
       </c>
-      <c r="W194" s="2" t="n">
+      <c r="W194" s="3" t="n">
         <v>45433</v>
       </c>
       <c r="X194" t="inlineStr">
@@ -27834,14 +26093,12 @@
       <c r="AK194" t="n">
         <v>0</v>
       </c>
-      <c r="AL194" t="inlineStr"/>
       <c r="AM194" t="n">
         <v>1</v>
       </c>
       <c r="AN194" t="n">
         <v>0</v>
       </c>
-      <c r="AO194" t="inlineStr"/>
       <c r="AP194" t="n">
         <v>10.24</v>
       </c>
@@ -27915,7 +26172,7 @@
       <c r="N195" t="n">
         <v>1</v>
       </c>
-      <c r="O195" s="2" t="n">
+      <c r="O195" s="3" t="n">
         <v>45590</v>
       </c>
       <c r="P195" t="inlineStr">
@@ -27933,19 +26190,19 @@
           <t>092-CIVIL 2023-001 (EPA)</t>
         </is>
       </c>
-      <c r="S195" s="2" t="n">
+      <c r="S195" s="3" t="n">
         <v>45252</v>
       </c>
-      <c r="T195" s="2" t="n">
+      <c r="T195" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="U195" s="2" t="n">
+      <c r="U195" s="3" t="n">
         <v>45275</v>
       </c>
-      <c r="V195" s="2" t="n">
+      <c r="V195" s="3" t="n">
         <v>45295</v>
       </c>
-      <c r="W195" s="2" t="n">
+      <c r="W195" s="3" t="n">
         <v>45470</v>
       </c>
       <c r="X195" t="inlineStr">
@@ -27994,14 +26251,12 @@
       <c r="AK195" t="n">
         <v>0</v>
       </c>
-      <c r="AL195" t="inlineStr"/>
       <c r="AM195" t="n">
         <v>1</v>
       </c>
       <c r="AN195" t="n">
         <v>0</v>
       </c>
-      <c r="AO195" t="inlineStr"/>
       <c r="AP195" t="n">
         <v>11.24</v>
       </c>
@@ -28075,7 +26330,7 @@
       <c r="N196" t="n">
         <v>1</v>
       </c>
-      <c r="O196" s="2" t="n">
+      <c r="O196" s="3" t="n">
         <v>45591</v>
       </c>
       <c r="P196" t="inlineStr">
@@ -28088,20 +26343,19 @@
           <t>ELEC 2023-Region X-Tangub 001</t>
         </is>
       </c>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" s="2" t="n">
+      <c r="S196" s="3" t="n">
         <v>45619</v>
       </c>
-      <c r="T196" s="2" t="n">
+      <c r="T196" s="3" t="n">
         <v>45626</v>
       </c>
-      <c r="U196" s="2" t="n">
+      <c r="U196" s="3" t="n">
         <v>45272</v>
       </c>
-      <c r="V196" s="2" t="n">
+      <c r="V196" s="3" t="n">
         <v>45280</v>
       </c>
-      <c r="W196" s="2" t="n">
+      <c r="W196" s="3" t="n">
         <v>45477</v>
       </c>
       <c r="X196" t="inlineStr">
@@ -28150,14 +26404,12 @@
       <c r="AK196" t="n">
         <v>0</v>
       </c>
-      <c r="AL196" t="inlineStr"/>
       <c r="AM196" t="n">
         <v>1</v>
       </c>
       <c r="AN196" t="n">
         <v>0</v>
       </c>
-      <c r="AO196" t="inlineStr"/>
       <c r="AP196" t="n">
         <v>4.25</v>
       </c>
@@ -28231,7 +26483,7 @@
       <c r="N197" t="n">
         <v>0.9</v>
       </c>
-      <c r="O197" s="2" t="n">
+      <c r="O197" s="3" t="n">
         <v>45586</v>
       </c>
       <c r="P197" t="inlineStr">
@@ -28247,19 +26499,19 @@
           <t>011 s. 2024</t>
         </is>
       </c>
-      <c r="S197" s="2" t="n">
+      <c r="S197" s="3" t="n">
         <v>45327</v>
       </c>
-      <c r="T197" s="2" t="n">
+      <c r="T197" s="3" t="n">
         <v>45338</v>
       </c>
-      <c r="U197" s="2" t="n">
+      <c r="U197" s="3" t="n">
         <v>45338</v>
       </c>
-      <c r="V197" s="2" t="n">
+      <c r="V197" s="3" t="n">
         <v>45343</v>
       </c>
-      <c r="W197" s="2" t="n">
+      <c r="W197" s="3" t="n">
         <v>45344</v>
       </c>
       <c r="X197" t="inlineStr">
@@ -28308,15 +26560,12 @@
       <c r="AK197" t="n">
         <v>0</v>
       </c>
-      <c r="AL197" t="inlineStr"/>
       <c r="AM197" t="n">
         <v>0.9</v>
       </c>
       <c r="AN197" t="n">
         <v>0</v>
       </c>
-      <c r="AO197" t="inlineStr"/>
-      <c r="AP197" t="inlineStr"/>
       <c r="AQ197" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -28325,6 +26574,79 @@
       <c r="AR197" t="inlineStr">
         <is>
           <t>ONGOING</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AS2:AS197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region X/Region X_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region X/Region X_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS197"/>
+  <dimension ref="A1:AU197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -773,7 +783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -887,7 +902,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1001,7 +1021,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1131,7 +1156,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1261,7 +1286,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1372,7 +1397,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1530,6 +1560,11 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -1681,7 +1716,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1834,7 +1869,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1987,7 +2022,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2140,7 +2175,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -2290,7 +2325,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2443,7 +2478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -2598,7 +2633,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -2732,7 +2767,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2877,7 +2912,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3022,7 +3057,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3156,7 +3191,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3290,7 +3325,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3435,7 +3470,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3580,7 +3615,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3725,7 +3760,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3870,7 +3905,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3993,7 +4028,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4116,7 +4151,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4239,7 +4274,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4362,7 +4397,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4485,7 +4520,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4608,7 +4643,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4731,7 +4766,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4854,7 +4889,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4977,7 +5012,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5100,7 +5135,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5248,7 +5283,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5396,7 +5431,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5525,7 +5560,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5654,7 +5689,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5797,7 +5832,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5940,7 +5975,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6080,7 +6115,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6238,6 +6278,11 @@
       </c>
       <c r="AR42" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -6394,6 +6439,11 @@
       </c>
       <c r="AR43" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -6532,7 +6582,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6672,7 +6722,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6825,7 +6875,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6981,7 +7031,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7139,7 +7189,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7284,7 +7334,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7429,7 +7479,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7574,7 +7624,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7711,7 +7761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7848,7 +7898,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7985,7 +8035,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8122,7 +8172,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8259,7 +8309,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8396,7 +8446,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8533,7 +8583,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8670,7 +8720,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8807,7 +8857,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8950,7 +9000,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9093,7 +9143,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9231,7 +9281,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9363,7 +9413,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9480,7 +9530,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9612,7 +9662,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9734,7 +9784,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9867,7 +9917,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10000,7 +10050,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10133,7 +10183,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10266,7 +10316,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10396,7 +10446,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10540,7 +10590,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10654,7 +10704,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10793,7 +10843,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10912,7 +10962,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11026,7 +11076,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11140,7 +11190,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11284,7 +11334,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11428,7 +11478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11542,7 +11592,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11681,7 +11731,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11800,7 +11850,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11914,7 +11964,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12028,7 +12078,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12142,7 +12192,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12261,7 +12311,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12375,7 +12425,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12494,7 +12544,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12613,7 +12663,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12727,7 +12777,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12846,7 +12896,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12965,7 +13015,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13079,7 +13129,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13198,7 +13248,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13312,7 +13362,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13431,7 +13481,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13550,7 +13600,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13669,7 +13719,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13788,7 +13838,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13907,7 +13957,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14026,7 +14076,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14145,7 +14195,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14264,7 +14314,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14383,7 +14433,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14502,7 +14552,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14621,7 +14671,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14740,7 +14790,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14859,7 +14909,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14978,7 +15028,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15097,7 +15147,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15216,7 +15266,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15335,7 +15385,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15454,7 +15504,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15573,7 +15623,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15692,7 +15742,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15811,7 +15861,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15927,7 +15977,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16067,7 +16117,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16204,7 +16254,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16323,7 +16373,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16442,7 +16492,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16561,7 +16611,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16675,7 +16725,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16789,7 +16839,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16903,7 +16953,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17017,7 +17067,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17131,7 +17181,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17245,7 +17295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17364,7 +17414,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17483,7 +17533,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17638,7 +17688,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17788,7 +17838,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17943,7 +17993,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18093,7 +18143,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18235,7 +18285,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -18370,6 +18420,11 @@
       </c>
       <c r="AR137" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT137" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -18510,7 +18565,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -18643,6 +18698,11 @@
       </c>
       <c r="AR139" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT139" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -18777,7 +18837,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18912,7 +18972,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19021,7 +19081,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19137,6 +19197,11 @@
       </c>
       <c r="AR143" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT143" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -19244,7 +19309,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19350,6 +19415,11 @@
       </c>
       <c r="AR145" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT145" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -19457,7 +19527,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19568,6 +19638,11 @@
       </c>
       <c r="AR147" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT147" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -19672,6 +19747,11 @@
       </c>
       <c r="AR148" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT148" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -19779,7 +19859,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19883,7 +19963,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -19992,7 +20072,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20101,7 +20181,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20215,7 +20295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20326,6 +20406,11 @@
       </c>
       <c r="AR154" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT154" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -20438,7 +20523,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20552,7 +20637,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20676,7 +20761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20809,7 +20894,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20947,6 +21032,11 @@
       </c>
       <c r="AR159" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT159" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21089,7 +21179,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21228,7 +21318,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21372,7 +21462,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21476,7 +21566,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -21590,7 +21680,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21742,7 +21832,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21856,7 +21946,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22003,7 +22093,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22150,7 +22240,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22292,7 +22382,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22439,7 +22529,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22591,7 +22681,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22742,6 +22832,11 @@
       </c>
       <c r="AR172" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT172" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22891,6 +22986,11 @@
       </c>
       <c r="AR173" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT173" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23040,6 +23140,11 @@
       </c>
       <c r="AR174" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT174" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23162,6 +23267,11 @@
       </c>
       <c r="AR175" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT175" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23315,6 +23425,11 @@
       </c>
       <c r="AR176" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT176" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23468,6 +23583,16 @@
       </c>
       <c r="AR177" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS177" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT177" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23625,7 +23750,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -23780,7 +23905,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -23935,7 +24060,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -24095,6 +24220,11 @@
       </c>
       <c r="AR181" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT181" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24253,6 +24383,11 @@
       </c>
       <c r="AR182" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT182" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24409,6 +24544,11 @@
       </c>
       <c r="AR183" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT183" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24565,6 +24705,11 @@
       </c>
       <c r="AR184" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT184" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24724,6 +24869,11 @@
       </c>
       <c r="AR185" t="inlineStr">
         <is>
+          <t>BBM 2025 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT185" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24882,6 +25032,11 @@
       </c>
       <c r="AR186" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT186" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25036,7 +25191,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -25189,7 +25344,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -25344,7 +25499,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -25499,7 +25654,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -25659,6 +25814,11 @@
       </c>
       <c r="AR191" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT191" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25807,7 +25967,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -25957,7 +26117,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -26109,6 +26269,11 @@
       </c>
       <c r="AR194" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26267,6 +26432,11 @@
       </c>
       <c r="AR195" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26420,6 +26590,11 @@
       </c>
       <c r="AR196" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26571,7 +26746,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR197" t="inlineStr">
+      <c r="AT197" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -26579,7 +26754,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
